--- a/testData/NTA.xlsx
+++ b/testData/NTA.xlsx
@@ -37,7 +37,7 @@
     <t>File No. SIKAP</t>
   </si>
   <si>
-    <t>IC No. OB</t>
+    <t>IC No.</t>
   </si>
   <si>
     <t>Accident Date</t>
@@ -2950,7 +2950,7 @@
         <v>44288</v>
       </c>
       <c r="H3" s="26">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>65</v>
@@ -3126,7 +3126,7 @@
         <v>44164</v>
       </c>
       <c r="H4" s="26">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>99</v>
@@ -3292,7 +3292,7 @@
         <v>43542</v>
       </c>
       <c r="H5" s="26">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>108</v>
@@ -3462,7 +3462,7 @@
         <v>43285</v>
       </c>
       <c r="H6" s="26">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>118</v>
@@ -3628,7 +3628,7 @@
         <v>43342</v>
       </c>
       <c r="H7" s="26">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>124</v>
@@ -3794,7 +3794,7 @@
         <v>43331</v>
       </c>
       <c r="H8" s="26">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>130</v>
@@ -3962,7 +3962,7 @@
         <v>43066</v>
       </c>
       <c r="H9" s="26">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>138</v>
@@ -4128,7 +4128,7 @@
         <v>44682</v>
       </c>
       <c r="H10" s="52">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I10" s="49" t="s">
         <v>147</v>
@@ -4290,7 +4290,7 @@
         <v>44624</v>
       </c>
       <c r="H11" s="26">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>152</v>
@@ -4456,7 +4456,7 @@
         <v>44735</v>
       </c>
       <c r="H12" s="26">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>159</v>
@@ -4622,7 +4622,7 @@
         <v>43248</v>
       </c>
       <c r="H13" s="66">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I13" s="63" t="s">
         <v>165</v>
@@ -4788,7 +4788,7 @@
         <v>44433</v>
       </c>
       <c r="H14" s="66">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I14" s="63" t="s">
         <v>171</v>
@@ -4954,7 +4954,7 @@
         <v>43897</v>
       </c>
       <c r="H15" s="66">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I15" s="63" t="s">
         <v>178</v>
@@ -5122,7 +5122,7 @@
         <v>43117</v>
       </c>
       <c r="H16" s="66">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I16" s="63" t="s">
         <v>185</v>
@@ -5288,7 +5288,7 @@
         <v>43177</v>
       </c>
       <c r="H17" s="66">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I17" s="63" t="s">
         <v>191</v>
@@ -5454,7 +5454,7 @@
         <v>43440</v>
       </c>
       <c r="H18" s="66">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I18" s="63" t="s">
         <v>200</v>
@@ -5622,7 +5622,7 @@
         <v>43292</v>
       </c>
       <c r="H19" s="66">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I19" s="63" t="s">
         <v>207</v>
@@ -5788,7 +5788,7 @@
         <v>43656</v>
       </c>
       <c r="H20" s="66">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I20" s="63" t="s">
         <v>213</v>
@@ -5954,7 +5954,7 @@
         <v>44357</v>
       </c>
       <c r="H21" s="66">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I21" s="63" t="s">
         <v>219</v>
@@ -6120,7 +6120,7 @@
         <v>43196</v>
       </c>
       <c r="H22" s="66">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I22" s="63" t="s">
         <v>226</v>
@@ -6286,7 +6286,7 @@
         <v>43439</v>
       </c>
       <c r="H23" s="66">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I23" s="63" t="s">
         <v>232</v>
@@ -6450,7 +6450,7 @@
         <v>44559</v>
       </c>
       <c r="H24" s="82">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I24" s="79" t="s">
         <v>238</v>
@@ -6616,7 +6616,7 @@
         <v>44164</v>
       </c>
       <c r="H25" s="82">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I25" s="79" t="s">
         <v>247</v>
@@ -6784,7 +6784,7 @@
         <v>43413</v>
       </c>
       <c r="H26" s="82">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I26" s="93" t="s">
         <v>253</v>
@@ -6952,7 +6952,7 @@
         <v>44806</v>
       </c>
       <c r="H27" s="52">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I27" s="49" t="s">
         <v>261</v>
@@ -7114,7 +7114,7 @@
         <v>43981</v>
       </c>
       <c r="H28" s="82">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I28" s="79" t="s">
         <v>267</v>
@@ -7280,7 +7280,7 @@
         <v>43110</v>
       </c>
       <c r="H29" s="82">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I29" s="79" t="s">
         <v>273</v>
@@ -7448,7 +7448,7 @@
         <v>44264</v>
       </c>
       <c r="H30" s="52">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I30" s="49" t="s">
         <v>281</v>
@@ -7610,7 +7610,7 @@
         <v>44077</v>
       </c>
       <c r="H31" s="52">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I31" s="49" t="s">
         <v>286</v>
@@ -7772,7 +7772,7 @@
         <v>43194</v>
       </c>
       <c r="H32" s="82">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I32" s="79" t="s">
         <v>292</v>
@@ -7938,7 +7938,7 @@
         <v>44422</v>
       </c>
       <c r="H33" s="102">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I33" s="99" t="s">
         <v>298</v>
@@ -8110,7 +8110,7 @@
         <v>43127</v>
       </c>
       <c r="H34" s="82">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I34" s="79" t="s">
         <v>311</v>
@@ -8282,7 +8282,7 @@
         <v>43794</v>
       </c>
       <c r="H35" s="102">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I35" s="99" t="s">
         <v>323</v>
@@ -8454,7 +8454,7 @@
         <v>43666</v>
       </c>
       <c r="H36" s="82">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I36" s="79" t="s">
         <v>335</v>
@@ -8626,7 +8626,7 @@
         <v>43749</v>
       </c>
       <c r="H37" s="126">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I37" s="123" t="s">
         <v>340</v>
@@ -8798,7 +8798,7 @@
         <v>44382</v>
       </c>
       <c r="H38" s="126">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I38" s="123" t="s">
         <v>345</v>
@@ -8970,7 +8970,7 @@
         <v>44385</v>
       </c>
       <c r="H39" s="126">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I39" s="123" t="s">
         <v>350</v>
@@ -9142,7 +9142,7 @@
         <v>43189</v>
       </c>
       <c r="H40" s="126">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I40" s="123" t="s">
         <v>360</v>
@@ -9314,7 +9314,7 @@
         <v>44385</v>
       </c>
       <c r="H41" s="126">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I41" s="123" t="s">
         <v>371</v>
@@ -9486,7 +9486,7 @@
         <v>43166</v>
       </c>
       <c r="H42" s="126">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I42" s="123" t="s">
         <v>380</v>
@@ -9653,10 +9653,10 @@
         <v>590127105460</v>
       </c>
       <c r="G43" s="125">
-        <v>43543</v>
+        <v>43544</v>
       </c>
       <c r="H43" s="126">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I43" s="123" t="s">
         <v>384</v>
@@ -9717,7 +9717,7 @@
         <v>81</v>
       </c>
       <c r="AC43" s="125">
-        <v>43543</v>
+        <v>43544</v>
       </c>
       <c r="AD43" s="131">
         <v>43574</v>
@@ -9825,10 +9825,10 @@
         <v>590316045030</v>
       </c>
       <c r="G44" s="101">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="H44" s="102">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I44" s="99" t="s">
         <v>390</v>
@@ -9883,7 +9883,7 @@
         <v>81</v>
       </c>
       <c r="AC44" s="101">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="AD44" s="106">
         <v>44455</v>
@@ -9994,7 +9994,7 @@
         <v>44366</v>
       </c>
       <c r="H45" s="150">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I45" s="147" t="s">
         <v>394</v>
@@ -10160,7 +10160,7 @@
         <v>43373</v>
       </c>
       <c r="H46" s="150">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I46" s="147" t="s">
         <v>400</v>
@@ -10328,7 +10328,7 @@
         <v>44021</v>
       </c>
       <c r="H47" s="52">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I47" s="49" t="s">
         <v>407</v>
@@ -10486,7 +10486,7 @@
         <v>44430</v>
       </c>
       <c r="H48" s="150">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I48" s="147" t="s">
         <v>410</v>
@@ -10654,7 +10654,7 @@
         <v>44402</v>
       </c>
       <c r="H49" s="150">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I49" s="147" t="s">
         <v>416</v>
@@ -10803,7 +10803,7 @@
       <c r="BO49" s="7"/>
       <c r="BP49" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="145">
         <v>48</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>44103</v>
       </c>
       <c r="H50" s="150">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I50" s="147" t="s">
         <v>422</v>
@@ -10971,7 +10971,7 @@
       <c r="BO50" s="7"/>
       <c r="BP50" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="145">
         <v>49</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>44356</v>
       </c>
       <c r="H51" s="150">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I51" s="147" t="s">
         <v>429</v>
@@ -11137,7 +11137,7 @@
       <c r="BO51" s="7"/>
       <c r="BP51" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="145">
         <v>50</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>43267</v>
       </c>
       <c r="H52" s="150">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I52" s="147" t="s">
         <v>435</v>
@@ -11305,7 +11305,7 @@
       <c r="BO52" s="7"/>
       <c r="BP52" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="145">
         <v>51</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>44651</v>
       </c>
       <c r="H53" s="150">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I53" s="147" t="s">
         <v>442</v>
@@ -11488,7 +11488,7 @@
         <v>44401</v>
       </c>
       <c r="H54" s="150">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I54" s="147" t="s">
         <v>448</v>
@@ -11656,7 +11656,7 @@
         <v>44722</v>
       </c>
       <c r="H55" s="150">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I55" s="147" t="s">
         <v>454</v>
@@ -11822,7 +11822,7 @@
         <v>44093</v>
       </c>
       <c r="H56" s="150">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I56" s="147" t="s">
         <v>460</v>
@@ -11986,7 +11986,7 @@
         <v>44842</v>
       </c>
       <c r="H57" s="52">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I57" s="49" t="s">
         <v>466</v>
@@ -12148,7 +12148,7 @@
         <v>44119</v>
       </c>
       <c r="H58" s="150">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I58" s="147" t="s">
         <v>471</v>
@@ -12314,7 +12314,7 @@
         <v>44231</v>
       </c>
       <c r="H59" s="168">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I59" s="165" t="s">
         <v>477</v>
@@ -12476,7 +12476,7 @@
         <v>44231</v>
       </c>
       <c r="H60" s="168">
-        <v>5.706886574074074</v>
+        <v>9.705729166666666</v>
       </c>
       <c r="I60" s="165" t="s">
         <v>482</v>

--- a/testData/NTA.xlsx
+++ b/testData/NTA.xlsx
@@ -254,7 +254,7 @@
     <t>B3213047P</t>
   </si>
   <si>
-    <t>E2100001105M</t>
+    <t>E1201000887F</t>
   </si>
   <si>
     <t>PK - NTA -FOT (UAT Purpose)</t>
@@ -1153,7 +1153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1265,6 +1265,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1649,81 +1652,81 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="53" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="54" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="54" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="55" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="56" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="57" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="58" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="55" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="54" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="57" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="54" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="55" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="55" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="55" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="59" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="60" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="60" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="55" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="55" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="53" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="53" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="53" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="53" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="53" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="53" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="55" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="55" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="55" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="57" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="55" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="56" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="55" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="54" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="54" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="59" max="59" style="54" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="60" max="60" style="54" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="61" max="61" style="54" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="62" max="62" style="61" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="63" max="63" style="54" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="64" max="64" style="54" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="65" max="65" style="54" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="66" max="66" style="54" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="67" max="67" style="54" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="68" max="68" style="54" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="69" max="69" style="54" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="70" max="70" style="54" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="71" max="71" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="72" max="72" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="73" max="73" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="74" max="74" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="75" max="75" style="62" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="55" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="55" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="56" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="57" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="58" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="59" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="56" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="55" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="58" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="55" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="56" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="56" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="56" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="60" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="55" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="61" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="61" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="56" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="56" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="54" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="54" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="56" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="56" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="56" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="58" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="56" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="56" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="57" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="56" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="55" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="55" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="59" max="59" style="55" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="60" max="60" style="55" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="61" max="61" style="55" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="62" max="62" style="62" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="63" max="63" style="55" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="64" max="64" style="55" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="65" max="65" style="55" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="66" max="66" style="55" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="67" max="67" style="55" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="68" max="68" style="55" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="69" max="69" style="55" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="70" max="70" style="55" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="71" max="71" style="55" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="72" max="72" style="55" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="73" max="73" style="55" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="74" max="74" style="55" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="75" max="75" style="63" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2041,13 +2044,13 @@
       <c r="D3" s="10"/>
       <c r="E3" s="31"/>
       <c r="F3" s="32">
-        <v>660606135430</v>
+        <v>950609115641</v>
       </c>
       <c r="G3" s="33">
-        <v>32874</v>
+        <v>40179</v>
       </c>
       <c r="H3" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>75</v>
@@ -2059,7 +2062,7 @@
         <v>77</v>
       </c>
       <c r="L3" s="33">
-        <v>32874</v>
+        <v>40179</v>
       </c>
       <c r="M3" s="35" t="s">
         <v>78</v>
@@ -2108,10 +2111,10 @@
         <v>91</v>
       </c>
       <c r="AC3" s="38">
-        <v>32874</v>
-      </c>
-      <c r="AD3" s="38">
-        <v>33604</v>
+        <v>40179</v>
+      </c>
+      <c r="AD3" s="39">
+        <v>43101</v>
       </c>
       <c r="AE3" s="36" t="s">
         <v>92</v>
@@ -2119,22 +2122,22 @@
       <c r="AF3" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG3" s="39">
+      <c r="AG3" s="40">
         <v>2350</v>
       </c>
-      <c r="AH3" s="39">
+      <c r="AH3" s="40">
         <v>2350</v>
       </c>
-      <c r="AI3" s="39">
+      <c r="AI3" s="40">
         <v>2350</v>
       </c>
-      <c r="AJ3" s="39">
+      <c r="AJ3" s="40">
         <v>2350</v>
       </c>
-      <c r="AK3" s="39">
+      <c r="AK3" s="40">
         <v>2350</v>
       </c>
-      <c r="AL3" s="39">
+      <c r="AL3" s="40">
         <v>950</v>
       </c>
       <c r="AM3" s="36" t="s">
@@ -2149,7 +2152,7 @@
       <c r="AP3" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ3" s="40">
+      <c r="AQ3" s="41">
         <v>32874</v>
       </c>
       <c r="AR3" s="36" t="s">
@@ -2173,24 +2176,24 @@
       <c r="BB3" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC3" s="41">
+      <c r="BC3" s="42">
         <v>12538525756746</v>
       </c>
       <c r="BD3" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE3" s="42" t="s">
+      <c r="BE3" s="43" t="s">
         <v>103</v>
       </c>
       <c r="BF3" s="10"/>
       <c r="BG3" s="10"/>
       <c r="BH3" s="10"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="44"/>
+      <c r="BI3" s="44"/>
+      <c r="BJ3" s="45"/>
       <c r="BK3" s="10"/>
       <c r="BL3" s="10"/>
       <c r="BM3" s="10"/>
-      <c r="BN3" s="45"/>
+      <c r="BN3" s="46"/>
       <c r="BO3" s="10"/>
       <c r="BP3" s="10"/>
       <c r="BQ3" s="10"/>
@@ -2216,7 +2219,7 @@
         <v>44164</v>
       </c>
       <c r="H4" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>104</v>
@@ -2274,10 +2277,10 @@
       <c r="AB4" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC4" s="38">
+      <c r="AC4" s="39">
         <v>44164</v>
       </c>
-      <c r="AD4" s="38">
+      <c r="AD4" s="39">
         <v>44193</v>
       </c>
       <c r="AE4" s="36" t="s">
@@ -2286,22 +2289,22 @@
       <c r="AF4" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="39">
+      <c r="AG4" s="40">
         <v>1450</v>
       </c>
-      <c r="AH4" s="39">
+      <c r="AH4" s="40">
         <v>1450</v>
       </c>
-      <c r="AI4" s="39">
+      <c r="AI4" s="40">
         <v>1450</v>
       </c>
-      <c r="AJ4" s="39">
+      <c r="AJ4" s="40">
         <v>1450</v>
       </c>
-      <c r="AK4" s="39">
+      <c r="AK4" s="40">
         <v>1450</v>
       </c>
-      <c r="AL4" s="39">
+      <c r="AL4" s="40">
         <v>1450</v>
       </c>
       <c r="AM4" s="36" t="s">
@@ -2316,7 +2319,7 @@
       <c r="AP4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ4" s="40">
+      <c r="AQ4" s="41">
         <v>45141</v>
       </c>
       <c r="AR4" s="36" t="s">
@@ -2340,24 +2343,24 @@
       <c r="BB4" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC4" s="41">
+      <c r="BC4" s="42">
         <v>11255951323139</v>
       </c>
       <c r="BD4" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE4" s="42" t="s">
+      <c r="BE4" s="43" t="s">
         <v>110</v>
       </c>
       <c r="BF4" s="10"/>
       <c r="BG4" s="10"/>
       <c r="BH4" s="10"/>
-      <c r="BI4" s="43"/>
-      <c r="BJ4" s="44"/>
+      <c r="BI4" s="44"/>
+      <c r="BJ4" s="45"/>
       <c r="BK4" s="10"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
-      <c r="BN4" s="45"/>
+      <c r="BN4" s="46"/>
       <c r="BO4" s="10"/>
       <c r="BP4" s="10"/>
       <c r="BQ4" s="10"/>
@@ -2385,7 +2388,7 @@
         <v>43542</v>
       </c>
       <c r="H5" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>112</v>
@@ -2447,10 +2450,10 @@
       <c r="AB5" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC5" s="38">
+      <c r="AC5" s="39">
         <v>43798</v>
       </c>
-      <c r="AD5" s="46">
+      <c r="AD5" s="47">
         <v>43563</v>
       </c>
       <c r="AE5" s="36" t="s">
@@ -2459,22 +2462,22 @@
       <c r="AF5" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG5" s="39">
+      <c r="AG5" s="40">
         <v>2750</v>
       </c>
-      <c r="AH5" s="39">
+      <c r="AH5" s="40">
         <v>3650</v>
       </c>
-      <c r="AI5" s="39">
+      <c r="AI5" s="40">
         <v>2750</v>
       </c>
-      <c r="AJ5" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK5" s="39">
+      <c r="AJ5" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK5" s="40">
         <v>3850</v>
       </c>
-      <c r="AL5" s="39">
+      <c r="AL5" s="40">
         <v>2750</v>
       </c>
       <c r="AM5" s="36" t="s">
@@ -2489,7 +2492,7 @@
       <c r="AP5" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ5" s="40">
+      <c r="AQ5" s="41">
         <v>45141</v>
       </c>
       <c r="AR5" s="36" t="s">
@@ -2513,24 +2516,24 @@
       <c r="BB5" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC5" s="41">
+      <c r="BC5" s="42">
         <v>163546572757</v>
       </c>
       <c r="BD5" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE5" s="42" t="s">
+      <c r="BE5" s="43" t="s">
         <v>120</v>
       </c>
       <c r="BF5" s="10"/>
       <c r="BG5" s="10"/>
       <c r="BH5" s="10"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="47"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="48"/>
       <c r="BK5" s="10"/>
       <c r="BL5" s="10"/>
       <c r="BM5" s="10"/>
-      <c r="BN5" s="45"/>
+      <c r="BN5" s="46"/>
       <c r="BO5" s="10"/>
       <c r="BP5" s="10"/>
       <c r="BQ5" s="10"/>
@@ -2556,7 +2559,7 @@
         <v>43285</v>
       </c>
       <c r="H6" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>121</v>
@@ -2616,10 +2619,10 @@
       <c r="AB6" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC6" s="38">
+      <c r="AC6" s="39">
         <v>43285</v>
       </c>
-      <c r="AD6" s="38">
+      <c r="AD6" s="39">
         <v>43316</v>
       </c>
       <c r="AE6" s="36" t="s">
@@ -2628,22 +2631,22 @@
       <c r="AF6" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG6" s="39">
+      <c r="AG6" s="40">
         <v>3450</v>
       </c>
-      <c r="AH6" s="39">
+      <c r="AH6" s="40">
         <v>3450</v>
       </c>
-      <c r="AI6" s="39">
+      <c r="AI6" s="40">
         <v>3450</v>
       </c>
-      <c r="AJ6" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK6" s="39">
+      <c r="AJ6" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK6" s="40">
         <v>3450</v>
       </c>
-      <c r="AL6" s="39">
+      <c r="AL6" s="40">
         <v>3750</v>
       </c>
       <c r="AM6" s="36" t="s">
@@ -2658,7 +2661,7 @@
       <c r="AP6" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ6" s="40">
+      <c r="AQ6" s="41">
         <v>45141</v>
       </c>
       <c r="AR6" s="36" t="s">
@@ -2682,22 +2685,22 @@
       <c r="BB6" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC6" s="41">
+      <c r="BC6" s="42">
         <v>162179623211</v>
       </c>
       <c r="BD6" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE6" s="42"/>
+      <c r="BE6" s="43"/>
       <c r="BF6" s="10"/>
       <c r="BG6" s="10"/>
       <c r="BH6" s="10"/>
-      <c r="BI6" s="43"/>
-      <c r="BJ6" s="47"/>
+      <c r="BI6" s="44"/>
+      <c r="BJ6" s="48"/>
       <c r="BK6" s="10"/>
       <c r="BL6" s="10"/>
       <c r="BM6" s="10"/>
-      <c r="BN6" s="45"/>
+      <c r="BN6" s="46"/>
       <c r="BO6" s="10"/>
       <c r="BP6" s="10"/>
       <c r="BQ6" s="10"/>
@@ -2723,7 +2726,7 @@
         <v>43342</v>
       </c>
       <c r="H7" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>125</v>
@@ -2783,10 +2786,10 @@
       <c r="AB7" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC7" s="38">
+      <c r="AC7" s="39">
         <v>43342</v>
       </c>
-      <c r="AD7" s="38">
+      <c r="AD7" s="39">
         <v>43373</v>
       </c>
       <c r="AE7" s="36" t="s">
@@ -2795,22 +2798,22 @@
       <c r="AF7" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG7" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH7" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI7" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ7" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK7" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL7" s="39">
+      <c r="AG7" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH7" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI7" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ7" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK7" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL7" s="40">
         <v>3950</v>
       </c>
       <c r="AM7" s="36" t="s">
@@ -2825,7 +2828,7 @@
       <c r="AP7" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ7" s="40">
+      <c r="AQ7" s="41">
         <v>45141</v>
       </c>
       <c r="AR7" s="36" t="s">
@@ -2849,22 +2852,22 @@
       <c r="BB7" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC7" s="41">
+      <c r="BC7" s="42">
         <v>11855855565755</v>
       </c>
       <c r="BD7" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE7" s="42"/>
+      <c r="BE7" s="43"/>
       <c r="BF7" s="10"/>
       <c r="BG7" s="10"/>
       <c r="BH7" s="10"/>
-      <c r="BI7" s="43"/>
-      <c r="BJ7" s="47"/>
+      <c r="BI7" s="44"/>
+      <c r="BJ7" s="48"/>
       <c r="BK7" s="10"/>
       <c r="BL7" s="10"/>
       <c r="BM7" s="10"/>
-      <c r="BN7" s="45"/>
+      <c r="BN7" s="46"/>
       <c r="BO7" s="10"/>
       <c r="BP7" s="10"/>
       <c r="BQ7" s="10"/>
@@ -2890,7 +2893,7 @@
         <v>43331</v>
       </c>
       <c r="H8" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>129</v>
@@ -2950,10 +2953,10 @@
       <c r="AB8" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC8" s="38">
+      <c r="AC8" s="39">
         <v>43331</v>
       </c>
-      <c r="AD8" s="38">
+      <c r="AD8" s="39">
         <v>43362</v>
       </c>
       <c r="AE8" s="36" t="s">
@@ -2962,22 +2965,22 @@
       <c r="AF8" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG8" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH8" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI8" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ8" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK8" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL8" s="39">
+      <c r="AG8" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH8" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI8" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ8" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK8" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL8" s="40">
         <v>3950</v>
       </c>
       <c r="AM8" s="36" t="s">
@@ -2992,7 +2995,7 @@
       <c r="AP8" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ8" s="40">
+      <c r="AQ8" s="41">
         <v>45141</v>
       </c>
       <c r="AR8" s="36" t="s">
@@ -3016,22 +3019,22 @@
       <c r="BB8" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC8" s="41">
+      <c r="BC8" s="42">
         <v>154512217363</v>
       </c>
       <c r="BD8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE8" s="42"/>
+      <c r="BE8" s="43"/>
       <c r="BF8" s="10"/>
       <c r="BG8" s="10"/>
       <c r="BH8" s="10"/>
-      <c r="BI8" s="43"/>
-      <c r="BJ8" s="47"/>
+      <c r="BI8" s="44"/>
+      <c r="BJ8" s="48"/>
       <c r="BK8" s="10"/>
       <c r="BL8" s="10"/>
       <c r="BM8" s="10"/>
-      <c r="BN8" s="45"/>
+      <c r="BN8" s="46"/>
       <c r="BO8" s="10"/>
       <c r="BP8" s="10"/>
       <c r="BQ8" s="10"/>
@@ -3057,7 +3060,7 @@
         <v>43066</v>
       </c>
       <c r="H9" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>134</v>
@@ -3117,10 +3120,10 @@
       <c r="AB9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC9" s="38">
+      <c r="AC9" s="39">
         <v>43066</v>
       </c>
-      <c r="AD9" s="38">
+      <c r="AD9" s="39">
         <v>43096</v>
       </c>
       <c r="AE9" s="36" t="s">
@@ -3129,22 +3132,22 @@
       <c r="AF9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG9" s="39">
+      <c r="AG9" s="40">
         <v>950</v>
       </c>
-      <c r="AH9" s="39">
+      <c r="AH9" s="40">
         <v>950</v>
       </c>
-      <c r="AI9" s="39">
+      <c r="AI9" s="40">
         <v>1450</v>
       </c>
-      <c r="AJ9" s="39">
+      <c r="AJ9" s="40">
         <v>1250</v>
       </c>
-      <c r="AK9" s="39">
+      <c r="AK9" s="40">
         <v>1450</v>
       </c>
-      <c r="AL9" s="39">
+      <c r="AL9" s="40">
         <v>1450</v>
       </c>
       <c r="AM9" s="36" t="s">
@@ -3159,7 +3162,7 @@
       <c r="AP9" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ9" s="40">
+      <c r="AQ9" s="41">
         <v>45141</v>
       </c>
       <c r="AR9" s="36" t="s">
@@ -3183,22 +3186,22 @@
       <c r="BB9" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC9" s="41">
+      <c r="BC9" s="42">
         <v>7625281542</v>
       </c>
       <c r="BD9" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE9" s="42"/>
+      <c r="BE9" s="43"/>
       <c r="BF9" s="10"/>
       <c r="BG9" s="10"/>
       <c r="BH9" s="10"/>
-      <c r="BI9" s="43"/>
-      <c r="BJ9" s="47"/>
+      <c r="BI9" s="44"/>
+      <c r="BJ9" s="48"/>
       <c r="BK9" s="10"/>
       <c r="BL9" s="10"/>
       <c r="BM9" s="10"/>
-      <c r="BN9" s="45"/>
+      <c r="BN9" s="46"/>
       <c r="BO9" s="10"/>
       <c r="BP9" s="10"/>
       <c r="BQ9" s="10"/>
@@ -3224,7 +3227,7 @@
         <v>44682</v>
       </c>
       <c r="H10" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>141</v>
@@ -3284,10 +3287,10 @@
       <c r="AB10" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC10" s="38">
+      <c r="AC10" s="39">
         <v>44682</v>
       </c>
-      <c r="AD10" s="38">
+      <c r="AD10" s="39">
         <v>44713</v>
       </c>
       <c r="AE10" s="36" t="s">
@@ -3296,22 +3299,22 @@
       <c r="AF10" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG10" s="39">
+      <c r="AG10" s="40">
         <v>2550</v>
       </c>
-      <c r="AH10" s="39">
+      <c r="AH10" s="40">
         <v>1950</v>
       </c>
-      <c r="AI10" s="39">
+      <c r="AI10" s="40">
         <v>2450</v>
       </c>
-      <c r="AJ10" s="39">
+      <c r="AJ10" s="40">
         <v>2050</v>
       </c>
-      <c r="AK10" s="39">
+      <c r="AK10" s="40">
         <v>2150</v>
       </c>
-      <c r="AL10" s="39">
+      <c r="AL10" s="40">
         <v>2050</v>
       </c>
       <c r="AM10" s="36" t="s">
@@ -3326,7 +3329,7 @@
       <c r="AP10" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ10" s="40">
+      <c r="AQ10" s="41">
         <v>45141</v>
       </c>
       <c r="AR10" s="36" t="s">
@@ -3350,22 +3353,22 @@
       <c r="BB10" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC10" s="41">
+      <c r="BC10" s="42">
         <v>11211655313937</v>
       </c>
       <c r="BD10" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE10" s="42"/>
+      <c r="BE10" s="43"/>
       <c r="BF10" s="10"/>
       <c r="BG10" s="10"/>
       <c r="BH10" s="10"/>
-      <c r="BI10" s="43"/>
-      <c r="BJ10" s="47"/>
+      <c r="BI10" s="44"/>
+      <c r="BJ10" s="48"/>
       <c r="BK10" s="10"/>
       <c r="BL10" s="10"/>
       <c r="BM10" s="10"/>
-      <c r="BN10" s="45"/>
+      <c r="BN10" s="46"/>
       <c r="BO10" s="10"/>
       <c r="BP10" s="10"/>
       <c r="BQ10" s="10"/>
@@ -3391,7 +3394,7 @@
         <v>44624</v>
       </c>
       <c r="H11" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>145</v>
@@ -3451,10 +3454,10 @@
       <c r="AB11" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC11" s="38">
+      <c r="AC11" s="39">
         <v>44624</v>
       </c>
-      <c r="AD11" s="38">
+      <c r="AD11" s="39">
         <v>44655</v>
       </c>
       <c r="AE11" s="36" t="s">
@@ -3463,22 +3466,22 @@
       <c r="AF11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG11" s="39">
+      <c r="AG11" s="40">
         <v>1150</v>
       </c>
-      <c r="AH11" s="39">
+      <c r="AH11" s="40">
         <v>1150</v>
       </c>
-      <c r="AI11" s="39">
+      <c r="AI11" s="40">
         <v>1150</v>
       </c>
-      <c r="AJ11" s="39">
+      <c r="AJ11" s="40">
         <v>1150</v>
       </c>
-      <c r="AK11" s="39">
+      <c r="AK11" s="40">
         <v>1150</v>
       </c>
-      <c r="AL11" s="39">
+      <c r="AL11" s="40">
         <v>1150</v>
       </c>
       <c r="AM11" s="36" t="s">
@@ -3493,7 +3496,7 @@
       <c r="AP11" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ11" s="40">
+      <c r="AQ11" s="41">
         <v>45141</v>
       </c>
       <c r="AR11" s="36" t="s">
@@ -3517,22 +3520,22 @@
       <c r="BB11" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC11" s="41">
+      <c r="BC11" s="42">
         <v>162469336195</v>
       </c>
       <c r="BD11" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE11" s="42"/>
+      <c r="BE11" s="43"/>
       <c r="BF11" s="10"/>
       <c r="BG11" s="10"/>
       <c r="BH11" s="10"/>
-      <c r="BI11" s="43"/>
-      <c r="BJ11" s="47"/>
+      <c r="BI11" s="44"/>
+      <c r="BJ11" s="48"/>
       <c r="BK11" s="10"/>
       <c r="BL11" s="10"/>
       <c r="BM11" s="10"/>
-      <c r="BN11" s="45"/>
+      <c r="BN11" s="46"/>
       <c r="BO11" s="10"/>
       <c r="BP11" s="10"/>
       <c r="BQ11" s="10"/>
@@ -3558,7 +3561,7 @@
         <v>44735</v>
       </c>
       <c r="H12" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>150</v>
@@ -3618,10 +3621,10 @@
       <c r="AB12" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC12" s="38">
+      <c r="AC12" s="39">
         <v>44735</v>
       </c>
-      <c r="AD12" s="38">
+      <c r="AD12" s="39">
         <v>44765</v>
       </c>
       <c r="AE12" s="36" t="s">
@@ -3630,22 +3633,22 @@
       <c r="AF12" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG12" s="39">
+      <c r="AG12" s="40">
         <v>2950</v>
       </c>
-      <c r="AH12" s="39">
+      <c r="AH12" s="40">
         <v>2450</v>
       </c>
-      <c r="AI12" s="39">
+      <c r="AI12" s="40">
         <v>0</v>
       </c>
-      <c r="AJ12" s="39">
+      <c r="AJ12" s="40">
         <v>0</v>
       </c>
-      <c r="AK12" s="39">
+      <c r="AK12" s="40">
         <v>0</v>
       </c>
-      <c r="AL12" s="39">
+      <c r="AL12" s="40">
         <v>0</v>
       </c>
       <c r="AM12" s="36" t="s">
@@ -3660,7 +3663,7 @@
       <c r="AP12" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ12" s="40">
+      <c r="AQ12" s="41">
         <v>45141</v>
       </c>
       <c r="AR12" s="36" t="s">
@@ -3684,22 +3687,22 @@
       <c r="BB12" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC12" s="41">
+      <c r="BC12" s="42">
         <v>164267412954</v>
       </c>
       <c r="BD12" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE12" s="42"/>
+      <c r="BE12" s="43"/>
       <c r="BF12" s="10"/>
       <c r="BG12" s="10"/>
       <c r="BH12" s="10"/>
-      <c r="BI12" s="43"/>
-      <c r="BJ12" s="47"/>
+      <c r="BI12" s="44"/>
+      <c r="BJ12" s="48"/>
       <c r="BK12" s="10"/>
       <c r="BL12" s="10"/>
       <c r="BM12" s="10"/>
-      <c r="BN12" s="45"/>
+      <c r="BN12" s="46"/>
       <c r="BO12" s="10"/>
       <c r="BP12" s="10"/>
       <c r="BQ12" s="10"/>
@@ -3725,7 +3728,7 @@
         <v>43248</v>
       </c>
       <c r="H13" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>154</v>
@@ -3785,10 +3788,10 @@
       <c r="AB13" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC13" s="38">
+      <c r="AC13" s="39">
         <v>43248</v>
       </c>
-      <c r="AD13" s="38">
+      <c r="AD13" s="39">
         <v>43279</v>
       </c>
       <c r="AE13" s="36" t="s">
@@ -3797,22 +3800,22 @@
       <c r="AF13" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG13" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH13" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI13" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ13" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK13" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL13" s="39">
+      <c r="AG13" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH13" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI13" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ13" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK13" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL13" s="40">
         <v>3950</v>
       </c>
       <c r="AM13" s="36" t="s">
@@ -3827,7 +3830,7 @@
       <c r="AP13" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ13" s="40">
+      <c r="AQ13" s="41">
         <v>45141</v>
       </c>
       <c r="AR13" s="36" t="s">
@@ -3851,22 +3854,22 @@
       <c r="BB13" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC13" s="41">
+      <c r="BC13" s="42">
         <v>166515351156</v>
       </c>
       <c r="BD13" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE13" s="42"/>
+      <c r="BE13" s="43"/>
       <c r="BF13" s="10"/>
       <c r="BG13" s="10"/>
       <c r="BH13" s="10"/>
-      <c r="BI13" s="43"/>
-      <c r="BJ13" s="45"/>
+      <c r="BI13" s="44"/>
+      <c r="BJ13" s="46"/>
       <c r="BK13" s="10"/>
       <c r="BL13" s="10"/>
       <c r="BM13" s="10"/>
-      <c r="BN13" s="45"/>
+      <c r="BN13" s="46"/>
       <c r="BO13" s="10"/>
       <c r="BP13" s="10"/>
       <c r="BQ13" s="10"/>
@@ -3892,7 +3895,7 @@
         <v>44433</v>
       </c>
       <c r="H14" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>158</v>
@@ -3952,10 +3955,10 @@
       <c r="AB14" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC14" s="38">
+      <c r="AC14" s="39">
         <v>44433</v>
       </c>
-      <c r="AD14" s="38">
+      <c r="AD14" s="39">
         <v>44464</v>
       </c>
       <c r="AE14" s="36" t="s">
@@ -3964,22 +3967,22 @@
       <c r="AF14" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG14" s="39">
+      <c r="AG14" s="40">
         <v>1950</v>
       </c>
-      <c r="AH14" s="39">
+      <c r="AH14" s="40">
         <v>2250</v>
       </c>
-      <c r="AI14" s="39">
+      <c r="AI14" s="40">
         <v>2550</v>
       </c>
-      <c r="AJ14" s="39">
+      <c r="AJ14" s="40">
         <v>2550</v>
       </c>
-      <c r="AK14" s="39">
+      <c r="AK14" s="40">
         <v>2550</v>
       </c>
-      <c r="AL14" s="39">
+      <c r="AL14" s="40">
         <v>2450</v>
       </c>
       <c r="AM14" s="36" t="s">
@@ -3994,7 +3997,7 @@
       <c r="AP14" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ14" s="40">
+      <c r="AQ14" s="41">
         <v>45141</v>
       </c>
       <c r="AR14" s="36" t="s">
@@ -4018,22 +4021,22 @@
       <c r="BB14" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC14" s="41">
+      <c r="BC14" s="42">
         <v>4596755617</v>
       </c>
       <c r="BD14" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE14" s="42"/>
+      <c r="BE14" s="43"/>
       <c r="BF14" s="10"/>
       <c r="BG14" s="10"/>
       <c r="BH14" s="10"/>
-      <c r="BI14" s="43"/>
-      <c r="BJ14" s="44"/>
+      <c r="BI14" s="44"/>
+      <c r="BJ14" s="45"/>
       <c r="BK14" s="10"/>
       <c r="BL14" s="10"/>
       <c r="BM14" s="10"/>
-      <c r="BN14" s="45"/>
+      <c r="BN14" s="46"/>
       <c r="BO14" s="10"/>
       <c r="BP14" s="10"/>
       <c r="BQ14" s="10"/>
@@ -4059,7 +4062,7 @@
         <v>43897</v>
       </c>
       <c r="H15" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>163</v>
@@ -4119,10 +4122,10 @@
       <c r="AB15" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC15" s="38">
+      <c r="AC15" s="39">
         <v>43897</v>
       </c>
-      <c r="AD15" s="38">
+      <c r="AD15" s="39">
         <v>43928</v>
       </c>
       <c r="AE15" s="36" t="s">
@@ -4131,22 +4134,22 @@
       <c r="AF15" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG15" s="39">
+      <c r="AG15" s="40">
         <v>2450</v>
       </c>
-      <c r="AH15" s="39">
+      <c r="AH15" s="40">
         <v>2450</v>
       </c>
-      <c r="AI15" s="39">
+      <c r="AI15" s="40">
         <v>2450</v>
       </c>
-      <c r="AJ15" s="39">
+      <c r="AJ15" s="40">
         <v>2450</v>
       </c>
-      <c r="AK15" s="39">
+      <c r="AK15" s="40">
         <v>2450</v>
       </c>
-      <c r="AL15" s="39">
+      <c r="AL15" s="40">
         <v>2450</v>
       </c>
       <c r="AM15" s="36" t="s">
@@ -4161,7 +4164,7 @@
       <c r="AP15" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ15" s="40">
+      <c r="AQ15" s="41">
         <v>45141</v>
       </c>
       <c r="AR15" s="36" t="s">
@@ -4185,22 +4188,22 @@
       <c r="BB15" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC15" s="41">
+      <c r="BC15" s="42">
         <v>7617963232</v>
       </c>
       <c r="BD15" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE15" s="42"/>
+      <c r="BE15" s="43"/>
       <c r="BF15" s="10"/>
       <c r="BG15" s="10"/>
       <c r="BH15" s="10"/>
-      <c r="BI15" s="43"/>
-      <c r="BJ15" s="47"/>
+      <c r="BI15" s="44"/>
+      <c r="BJ15" s="48"/>
       <c r="BK15" s="10"/>
       <c r="BL15" s="10"/>
       <c r="BM15" s="10"/>
-      <c r="BN15" s="45"/>
+      <c r="BN15" s="46"/>
       <c r="BO15" s="10"/>
       <c r="BP15" s="10"/>
       <c r="BQ15" s="10"/>
@@ -4226,7 +4229,7 @@
         <v>43117</v>
       </c>
       <c r="H16" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>168</v>
@@ -4286,10 +4289,10 @@
       <c r="AB16" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC16" s="38">
+      <c r="AC16" s="39">
         <v>43117</v>
       </c>
-      <c r="AD16" s="38">
+      <c r="AD16" s="39">
         <v>43148</v>
       </c>
       <c r="AE16" s="36" t="s">
@@ -4298,22 +4301,22 @@
       <c r="AF16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG16" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH16" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI16" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ16" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK16" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL16" s="39">
+      <c r="AG16" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH16" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI16" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ16" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK16" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL16" s="40">
         <v>3950</v>
       </c>
       <c r="AM16" s="36" t="s">
@@ -4328,7 +4331,7 @@
       <c r="AP16" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ16" s="40">
+      <c r="AQ16" s="41">
         <v>45141</v>
       </c>
       <c r="AR16" s="36" t="s">
@@ -4352,22 +4355,22 @@
       <c r="BB16" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC16" s="41">
+      <c r="BC16" s="42">
         <v>6955132735</v>
       </c>
       <c r="BD16" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE16" s="42"/>
+      <c r="BE16" s="43"/>
       <c r="BF16" s="10"/>
       <c r="BG16" s="10"/>
       <c r="BH16" s="10"/>
-      <c r="BI16" s="43"/>
-      <c r="BJ16" s="44"/>
+      <c r="BI16" s="44"/>
+      <c r="BJ16" s="45"/>
       <c r="BK16" s="10"/>
       <c r="BL16" s="10"/>
       <c r="BM16" s="10"/>
-      <c r="BN16" s="45"/>
+      <c r="BN16" s="46"/>
       <c r="BO16" s="10"/>
       <c r="BP16" s="10"/>
       <c r="BQ16" s="10"/>
@@ -4393,7 +4396,7 @@
         <v>43177</v>
       </c>
       <c r="H17" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>172</v>
@@ -4453,10 +4456,10 @@
       <c r="AB17" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC17" s="38">
+      <c r="AC17" s="39">
         <v>43177</v>
       </c>
-      <c r="AD17" s="38">
+      <c r="AD17" s="39">
         <v>43208</v>
       </c>
       <c r="AE17" s="36" t="s">
@@ -4465,22 +4468,22 @@
       <c r="AF17" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG17" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH17" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI17" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ17" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK17" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL17" s="39">
+      <c r="AG17" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH17" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI17" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ17" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK17" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL17" s="40">
         <v>3950</v>
       </c>
       <c r="AM17" s="36" t="s">
@@ -4495,7 +4498,7 @@
       <c r="AP17" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ17" s="40">
+      <c r="AQ17" s="41">
         <v>45141</v>
       </c>
       <c r="AR17" s="36" t="s">
@@ -4519,22 +4522,22 @@
       <c r="BB17" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC17" s="41">
+      <c r="BC17" s="42">
         <v>2516141155156720</v>
       </c>
       <c r="BD17" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE17" s="42"/>
+      <c r="BE17" s="43"/>
       <c r="BF17" s="10"/>
       <c r="BG17" s="10"/>
       <c r="BH17" s="10"/>
-      <c r="BI17" s="43"/>
-      <c r="BJ17" s="47"/>
+      <c r="BI17" s="44"/>
+      <c r="BJ17" s="48"/>
       <c r="BK17" s="10"/>
       <c r="BL17" s="10"/>
       <c r="BM17" s="10"/>
-      <c r="BN17" s="45"/>
+      <c r="BN17" s="46"/>
       <c r="BO17" s="10"/>
       <c r="BP17" s="10"/>
       <c r="BQ17" s="10"/>
@@ -4560,7 +4563,7 @@
         <v>43440</v>
       </c>
       <c r="H18" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>179</v>
@@ -4620,10 +4623,10 @@
       <c r="AB18" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC18" s="38">
+      <c r="AC18" s="39">
         <v>43440</v>
       </c>
-      <c r="AD18" s="38">
+      <c r="AD18" s="39">
         <v>43471</v>
       </c>
       <c r="AE18" s="36" t="s">
@@ -4632,22 +4635,22 @@
       <c r="AF18" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG18" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH18" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI18" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ18" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK18" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL18" s="39">
+      <c r="AG18" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH18" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI18" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ18" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK18" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL18" s="40">
         <v>3950</v>
       </c>
       <c r="AM18" s="36" t="s">
@@ -4662,7 +4665,7 @@
       <c r="AP18" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ18" s="40">
+      <c r="AQ18" s="41">
         <v>45141</v>
       </c>
       <c r="AR18" s="36" t="s">
@@ -4686,22 +4689,22 @@
       <c r="BB18" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC18" s="41">
+      <c r="BC18" s="42">
         <v>6955132732</v>
       </c>
       <c r="BD18" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE18" s="42"/>
+      <c r="BE18" s="43"/>
       <c r="BF18" s="10"/>
       <c r="BG18" s="10"/>
       <c r="BH18" s="10"/>
-      <c r="BI18" s="43"/>
-      <c r="BJ18" s="47"/>
+      <c r="BI18" s="44"/>
+      <c r="BJ18" s="48"/>
       <c r="BK18" s="10"/>
       <c r="BL18" s="10"/>
       <c r="BM18" s="10"/>
-      <c r="BN18" s="45"/>
+      <c r="BN18" s="46"/>
       <c r="BO18" s="10"/>
       <c r="BP18" s="10"/>
       <c r="BQ18" s="10"/>
@@ -4727,7 +4730,7 @@
         <v>43292</v>
       </c>
       <c r="H19" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>184</v>
@@ -4787,10 +4790,10 @@
       <c r="AB19" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC19" s="38">
+      <c r="AC19" s="39">
         <v>43292</v>
       </c>
-      <c r="AD19" s="38">
+      <c r="AD19" s="39">
         <v>43323</v>
       </c>
       <c r="AE19" s="36" t="s">
@@ -4799,22 +4802,22 @@
       <c r="AF19" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG19" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH19" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI19" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ19" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK19" s="39">
+      <c r="AG19" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH19" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI19" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ19" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK19" s="40">
         <v>2950</v>
       </c>
-      <c r="AL19" s="39">
+      <c r="AL19" s="40">
         <v>2950</v>
       </c>
       <c r="AM19" s="36" t="s">
@@ -4829,7 +4832,7 @@
       <c r="AP19" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ19" s="40">
+      <c r="AQ19" s="41">
         <v>45141</v>
       </c>
       <c r="AR19" s="36" t="s">
@@ -4853,22 +4856,22 @@
       <c r="BB19" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC19" s="41">
+      <c r="BC19" s="42">
         <v>7622352375</v>
       </c>
       <c r="BD19" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE19" s="42"/>
+      <c r="BE19" s="43"/>
       <c r="BF19" s="10"/>
       <c r="BG19" s="10"/>
       <c r="BH19" s="10"/>
-      <c r="BI19" s="43"/>
-      <c r="BJ19" s="47"/>
+      <c r="BI19" s="44"/>
+      <c r="BJ19" s="48"/>
       <c r="BK19" s="10"/>
       <c r="BL19" s="10"/>
       <c r="BM19" s="10"/>
-      <c r="BN19" s="45"/>
+      <c r="BN19" s="46"/>
       <c r="BO19" s="10"/>
       <c r="BP19" s="10"/>
       <c r="BQ19" s="10"/>
@@ -4894,7 +4897,7 @@
         <v>43656</v>
       </c>
       <c r="H20" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>188</v>
@@ -4954,10 +4957,10 @@
       <c r="AB20" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC20" s="38">
+      <c r="AC20" s="39">
         <v>43656</v>
       </c>
-      <c r="AD20" s="38">
+      <c r="AD20" s="39">
         <v>43687</v>
       </c>
       <c r="AE20" s="36" t="s">
@@ -4966,22 +4969,22 @@
       <c r="AF20" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG20" s="39">
+      <c r="AG20" s="40">
         <v>3150</v>
       </c>
-      <c r="AH20" s="39">
+      <c r="AH20" s="40">
         <v>3150</v>
       </c>
-      <c r="AI20" s="39">
+      <c r="AI20" s="40">
         <v>3050</v>
       </c>
-      <c r="AJ20" s="39">
+      <c r="AJ20" s="40">
         <v>3050</v>
       </c>
-      <c r="AK20" s="39">
+      <c r="AK20" s="40">
         <v>3450</v>
       </c>
-      <c r="AL20" s="39">
+      <c r="AL20" s="40">
         <v>3950</v>
       </c>
       <c r="AM20" s="36" t="s">
@@ -4996,7 +4999,7 @@
       <c r="AP20" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ20" s="40">
+      <c r="AQ20" s="41">
         <v>45141</v>
       </c>
       <c r="AR20" s="36" t="s">
@@ -5020,22 +5023,22 @@
       <c r="BB20" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC20" s="41">
+      <c r="BC20" s="42">
         <v>162218814483</v>
       </c>
       <c r="BD20" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE20" s="42"/>
+      <c r="BE20" s="43"/>
       <c r="BF20" s="10"/>
       <c r="BG20" s="10"/>
       <c r="BH20" s="10"/>
-      <c r="BI20" s="43"/>
-      <c r="BJ20" s="47"/>
+      <c r="BI20" s="44"/>
+      <c r="BJ20" s="48"/>
       <c r="BK20" s="10"/>
       <c r="BL20" s="10"/>
       <c r="BM20" s="10"/>
-      <c r="BN20" s="45"/>
+      <c r="BN20" s="46"/>
       <c r="BO20" s="10"/>
       <c r="BP20" s="10"/>
       <c r="BQ20" s="10"/>
@@ -5061,7 +5064,7 @@
         <v>44357</v>
       </c>
       <c r="H21" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>192</v>
@@ -5121,10 +5124,10 @@
       <c r="AB21" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC21" s="38">
+      <c r="AC21" s="39">
         <v>44357</v>
       </c>
-      <c r="AD21" s="38">
+      <c r="AD21" s="39">
         <v>44387</v>
       </c>
       <c r="AE21" s="36" t="s">
@@ -5133,22 +5136,22 @@
       <c r="AF21" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG21" s="39">
+      <c r="AG21" s="40">
         <v>2650</v>
       </c>
-      <c r="AH21" s="39">
+      <c r="AH21" s="40">
         <v>0</v>
       </c>
-      <c r="AI21" s="39">
+      <c r="AI21" s="40">
         <v>0</v>
       </c>
-      <c r="AJ21" s="39">
+      <c r="AJ21" s="40">
         <v>0</v>
       </c>
-      <c r="AK21" s="39">
+      <c r="AK21" s="40">
         <v>0</v>
       </c>
-      <c r="AL21" s="39">
+      <c r="AL21" s="40">
         <v>0</v>
       </c>
       <c r="AM21" s="36" t="s">
@@ -5163,7 +5166,7 @@
       <c r="AP21" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ21" s="40">
+      <c r="AQ21" s="41">
         <v>45141</v>
       </c>
       <c r="AR21" s="36" t="s">
@@ -5187,22 +5190,22 @@
       <c r="BB21" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC21" s="41">
+      <c r="BC21" s="42">
         <v>164481521285</v>
       </c>
       <c r="BD21" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE21" s="42"/>
+      <c r="BE21" s="43"/>
       <c r="BF21" s="10"/>
       <c r="BG21" s="10"/>
       <c r="BH21" s="10"/>
-      <c r="BI21" s="43"/>
-      <c r="BJ21" s="47"/>
+      <c r="BI21" s="44"/>
+      <c r="BJ21" s="48"/>
       <c r="BK21" s="10"/>
       <c r="BL21" s="10"/>
       <c r="BM21" s="10"/>
-      <c r="BN21" s="45"/>
+      <c r="BN21" s="46"/>
       <c r="BO21" s="10"/>
       <c r="BP21" s="10"/>
       <c r="BQ21" s="10"/>
@@ -5228,7 +5231,7 @@
         <v>43196</v>
       </c>
       <c r="H22" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>197</v>
@@ -5288,10 +5291,10 @@
       <c r="AB22" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC22" s="38">
+      <c r="AC22" s="39">
         <v>43196</v>
       </c>
-      <c r="AD22" s="38">
+      <c r="AD22" s="39">
         <v>43226</v>
       </c>
       <c r="AE22" s="36" t="s">
@@ -5300,22 +5303,22 @@
       <c r="AF22" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG22" s="39">
+      <c r="AG22" s="40">
         <v>1950</v>
       </c>
-      <c r="AH22" s="39">
+      <c r="AH22" s="40">
         <v>1450</v>
       </c>
-      <c r="AI22" s="39">
+      <c r="AI22" s="40">
         <v>1550</v>
       </c>
-      <c r="AJ22" s="39">
+      <c r="AJ22" s="40">
         <v>1150</v>
       </c>
-      <c r="AK22" s="39">
+      <c r="AK22" s="40">
         <v>1150</v>
       </c>
-      <c r="AL22" s="39">
+      <c r="AL22" s="40">
         <v>1350</v>
       </c>
       <c r="AM22" s="36" t="s">
@@ -5330,7 +5333,7 @@
       <c r="AP22" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ22" s="40">
+      <c r="AQ22" s="41">
         <v>45141</v>
       </c>
       <c r="AR22" s="36" t="s">
@@ -5354,22 +5357,22 @@
       <c r="BB22" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC22" s="41">
+      <c r="BC22" s="42">
         <v>162585451864</v>
       </c>
       <c r="BD22" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE22" s="42"/>
+      <c r="BE22" s="43"/>
       <c r="BF22" s="10"/>
       <c r="BG22" s="10"/>
       <c r="BH22" s="10"/>
-      <c r="BI22" s="48"/>
-      <c r="BJ22" s="47"/>
+      <c r="BI22" s="49"/>
+      <c r="BJ22" s="48"/>
       <c r="BK22" s="10"/>
       <c r="BL22" s="10"/>
       <c r="BM22" s="10"/>
-      <c r="BN22" s="45"/>
+      <c r="BN22" s="46"/>
       <c r="BO22" s="10"/>
       <c r="BP22" s="10"/>
       <c r="BQ22" s="10"/>
@@ -5395,7 +5398,7 @@
         <v>43439</v>
       </c>
       <c r="H23" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>201</v>
@@ -5453,10 +5456,10 @@
       <c r="AB23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC23" s="38">
+      <c r="AC23" s="39">
         <v>43439</v>
       </c>
-      <c r="AD23" s="38">
+      <c r="AD23" s="39">
         <v>43470</v>
       </c>
       <c r="AE23" s="36" t="s">
@@ -5465,22 +5468,22 @@
       <c r="AF23" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG23" s="39">
+      <c r="AG23" s="40">
         <v>0</v>
       </c>
-      <c r="AH23" s="39">
+      <c r="AH23" s="40">
         <v>0</v>
       </c>
-      <c r="AI23" s="39">
+      <c r="AI23" s="40">
         <v>170</v>
       </c>
-      <c r="AJ23" s="39">
+      <c r="AJ23" s="40">
         <v>0</v>
       </c>
-      <c r="AK23" s="39">
+      <c r="AK23" s="40">
         <v>0</v>
       </c>
-      <c r="AL23" s="39">
+      <c r="AL23" s="40">
         <v>0</v>
       </c>
       <c r="AM23" s="36" t="s">
@@ -5495,7 +5498,7 @@
       <c r="AP23" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ23" s="40">
+      <c r="AQ23" s="41">
         <v>45141</v>
       </c>
       <c r="AR23" s="36" t="s">
@@ -5519,22 +5522,22 @@
       <c r="BB23" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC23" s="41">
+      <c r="BC23" s="42">
         <v>162567464128</v>
       </c>
       <c r="BD23" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE23" s="42"/>
+      <c r="BE23" s="43"/>
       <c r="BF23" s="10"/>
       <c r="BG23" s="10"/>
       <c r="BH23" s="10"/>
-      <c r="BI23" s="43"/>
-      <c r="BJ23" s="44"/>
+      <c r="BI23" s="44"/>
+      <c r="BJ23" s="45"/>
       <c r="BK23" s="10"/>
       <c r="BL23" s="10"/>
       <c r="BM23" s="10"/>
-      <c r="BN23" s="45"/>
+      <c r="BN23" s="46"/>
       <c r="BO23" s="10"/>
       <c r="BP23" s="10"/>
       <c r="BQ23" s="10"/>
@@ -5560,7 +5563,7 @@
         <v>44559</v>
       </c>
       <c r="H24" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>205</v>
@@ -5620,10 +5623,10 @@
       <c r="AB24" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC24" s="38">
+      <c r="AC24" s="39">
         <v>44559</v>
       </c>
-      <c r="AD24" s="38">
+      <c r="AD24" s="39">
         <v>44590</v>
       </c>
       <c r="AE24" s="36" t="s">
@@ -5632,22 +5635,22 @@
       <c r="AF24" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG24" s="39">
+      <c r="AG24" s="40">
         <v>1050</v>
       </c>
-      <c r="AH24" s="39">
+      <c r="AH24" s="40">
         <v>1250</v>
       </c>
-      <c r="AI24" s="39">
+      <c r="AI24" s="40">
         <v>1350</v>
       </c>
-      <c r="AJ24" s="39">
+      <c r="AJ24" s="40">
         <v>0</v>
       </c>
-      <c r="AK24" s="39">
+      <c r="AK24" s="40">
         <v>0</v>
       </c>
-      <c r="AL24" s="39">
+      <c r="AL24" s="40">
         <v>0</v>
       </c>
       <c r="AM24" s="36" t="s">
@@ -5662,7 +5665,7 @@
       <c r="AP24" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ24" s="40">
+      <c r="AQ24" s="41">
         <v>45141</v>
       </c>
       <c r="AR24" s="36" t="s">
@@ -5686,22 +5689,22 @@
       <c r="BB24" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC24" s="41">
+      <c r="BC24" s="42">
         <v>8881553355587</v>
       </c>
       <c r="BD24" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE24" s="42"/>
+      <c r="BE24" s="43"/>
       <c r="BF24" s="10"/>
       <c r="BG24" s="10"/>
       <c r="BH24" s="10"/>
-      <c r="BI24" s="43"/>
-      <c r="BJ24" s="47"/>
+      <c r="BI24" s="44"/>
+      <c r="BJ24" s="48"/>
       <c r="BK24" s="10"/>
       <c r="BL24" s="10"/>
       <c r="BM24" s="10"/>
-      <c r="BN24" s="45"/>
+      <c r="BN24" s="46"/>
       <c r="BO24" s="10"/>
       <c r="BP24" s="10"/>
       <c r="BQ24" s="10"/>
@@ -5727,7 +5730,7 @@
         <v>44164</v>
       </c>
       <c r="H25" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>212</v>
@@ -5787,10 +5790,10 @@
       <c r="AB25" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC25" s="38">
+      <c r="AC25" s="39">
         <v>44164</v>
       </c>
-      <c r="AD25" s="38">
+      <c r="AD25" s="39">
         <v>44194</v>
       </c>
       <c r="AE25" s="36" t="s">
@@ -5799,22 +5802,22 @@
       <c r="AF25" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG25" s="39">
+      <c r="AG25" s="40">
         <v>1350</v>
       </c>
-      <c r="AH25" s="39">
+      <c r="AH25" s="40">
         <v>850</v>
       </c>
-      <c r="AI25" s="39">
+      <c r="AI25" s="40">
         <v>0</v>
       </c>
-      <c r="AJ25" s="39">
+      <c r="AJ25" s="40">
         <v>550</v>
       </c>
-      <c r="AK25" s="39">
+      <c r="AK25" s="40">
         <v>1150</v>
       </c>
-      <c r="AL25" s="39">
+      <c r="AL25" s="40">
         <v>1350</v>
       </c>
       <c r="AM25" s="36" t="s">
@@ -5829,7 +5832,7 @@
       <c r="AP25" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ25" s="40">
+      <c r="AQ25" s="41">
         <v>45141</v>
       </c>
       <c r="AR25" s="36" t="s">
@@ -5853,22 +5856,22 @@
       <c r="BB25" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC25" s="41">
+      <c r="BC25" s="42">
         <v>15156255855192</v>
       </c>
       <c r="BD25" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE25" s="42"/>
+      <c r="BE25" s="43"/>
       <c r="BF25" s="10"/>
       <c r="BG25" s="10"/>
       <c r="BH25" s="10"/>
-      <c r="BI25" s="43"/>
-      <c r="BJ25" s="47"/>
+      <c r="BI25" s="44"/>
+      <c r="BJ25" s="48"/>
       <c r="BK25" s="10"/>
       <c r="BL25" s="10"/>
       <c r="BM25" s="10"/>
-      <c r="BN25" s="45"/>
+      <c r="BN25" s="46"/>
       <c r="BO25" s="10"/>
       <c r="BP25" s="10"/>
       <c r="BQ25" s="10"/>
@@ -5894,9 +5897,9 @@
         <v>43413</v>
       </c>
       <c r="H26" s="34">
-        <v>3.7074652777777777</v>
-      </c>
-      <c r="I26" s="49" t="s">
+        <v>6.706597222222222</v>
+      </c>
+      <c r="I26" s="50" t="s">
         <v>216</v>
       </c>
       <c r="J26" s="31" t="s">
@@ -5920,20 +5923,20 @@
       <c r="P26" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="Q26" s="50" t="s">
+      <c r="Q26" s="51" t="s">
         <v>218</v>
       </c>
       <c r="R26" s="35" t="s">
         <v>219</v>
       </c>
       <c r="S26" s="35"/>
-      <c r="T26" s="51">
+      <c r="T26" s="52">
         <v>46150</v>
       </c>
       <c r="U26" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="V26" s="50" t="s">
+      <c r="V26" s="51" t="s">
         <v>85</v>
       </c>
       <c r="W26" s="31" t="s">
@@ -5954,10 +5957,10 @@
       <c r="AB26" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC26" s="38">
+      <c r="AC26" s="39">
         <v>43413</v>
       </c>
-      <c r="AD26" s="38">
+      <c r="AD26" s="39">
         <v>43443</v>
       </c>
       <c r="AE26" s="36" t="s">
@@ -5966,22 +5969,22 @@
       <c r="AF26" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG26" s="39">
+      <c r="AG26" s="40">
         <v>950</v>
       </c>
-      <c r="AH26" s="39">
+      <c r="AH26" s="40">
         <v>950</v>
       </c>
-      <c r="AI26" s="39">
+      <c r="AI26" s="40">
         <v>0</v>
       </c>
-      <c r="AJ26" s="39">
+      <c r="AJ26" s="40">
         <v>0</v>
       </c>
-      <c r="AK26" s="39">
+      <c r="AK26" s="40">
         <v>0</v>
       </c>
-      <c r="AL26" s="39">
+      <c r="AL26" s="40">
         <v>0</v>
       </c>
       <c r="AM26" s="36" t="s">
@@ -5996,7 +5999,7 @@
       <c r="AP26" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ26" s="40">
+      <c r="AQ26" s="41">
         <v>45141</v>
       </c>
       <c r="AR26" s="36" t="s">
@@ -6020,22 +6023,22 @@
       <c r="BB26" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC26" s="41">
+      <c r="BC26" s="42">
         <v>28451552458</v>
       </c>
       <c r="BD26" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE26" s="42"/>
+      <c r="BE26" s="43"/>
       <c r="BF26" s="10"/>
       <c r="BG26" s="10"/>
       <c r="BH26" s="10"/>
-      <c r="BI26" s="43"/>
-      <c r="BJ26" s="47"/>
+      <c r="BI26" s="44"/>
+      <c r="BJ26" s="48"/>
       <c r="BK26" s="10"/>
       <c r="BL26" s="10"/>
       <c r="BM26" s="10"/>
-      <c r="BN26" s="45"/>
+      <c r="BN26" s="46"/>
       <c r="BO26" s="10"/>
       <c r="BP26" s="10"/>
       <c r="BQ26" s="10"/>
@@ -6061,7 +6064,7 @@
         <v>44806</v>
       </c>
       <c r="H27" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>222</v>
@@ -6121,10 +6124,10 @@
       <c r="AB27" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC27" s="38">
+      <c r="AC27" s="39">
         <v>44806</v>
       </c>
-      <c r="AD27" s="38">
+      <c r="AD27" s="39">
         <v>44836</v>
       </c>
       <c r="AE27" s="36" t="s">
@@ -6133,22 +6136,22 @@
       <c r="AF27" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG27" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH27" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI27" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ27" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK27" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL27" s="39">
+      <c r="AG27" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH27" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI27" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ27" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK27" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL27" s="40">
         <v>3950</v>
       </c>
       <c r="AM27" s="36" t="s">
@@ -6163,7 +6166,7 @@
       <c r="AP27" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ27" s="40">
+      <c r="AQ27" s="41">
         <v>45141</v>
       </c>
       <c r="AR27" s="36" t="s">
@@ -6187,22 +6190,22 @@
       <c r="BB27" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC27" s="41">
+      <c r="BC27" s="42">
         <v>6454753924</v>
       </c>
       <c r="BD27" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE27" s="42"/>
+      <c r="BE27" s="43"/>
       <c r="BF27" s="10"/>
       <c r="BG27" s="10"/>
       <c r="BH27" s="10"/>
-      <c r="BI27" s="43"/>
-      <c r="BJ27" s="47"/>
+      <c r="BI27" s="44"/>
+      <c r="BJ27" s="48"/>
       <c r="BK27" s="10"/>
       <c r="BL27" s="10"/>
       <c r="BM27" s="10"/>
-      <c r="BN27" s="45"/>
+      <c r="BN27" s="46"/>
       <c r="BO27" s="10"/>
       <c r="BP27" s="10"/>
       <c r="BQ27" s="10"/>
@@ -6228,7 +6231,7 @@
         <v>43981</v>
       </c>
       <c r="H28" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I28" s="31" t="s">
         <v>227</v>
@@ -6288,10 +6291,10 @@
       <c r="AB28" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC28" s="38">
+      <c r="AC28" s="39">
         <v>43981</v>
       </c>
-      <c r="AD28" s="38">
+      <c r="AD28" s="39">
         <v>44012</v>
       </c>
       <c r="AE28" s="36" t="s">
@@ -6300,22 +6303,22 @@
       <c r="AF28" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG28" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH28" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI28" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ28" s="39">
+      <c r="AG28" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH28" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI28" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ28" s="40">
         <v>0</v>
       </c>
-      <c r="AK28" s="39">
+      <c r="AK28" s="40">
         <v>0</v>
       </c>
-      <c r="AL28" s="39">
+      <c r="AL28" s="40">
         <v>0</v>
       </c>
       <c r="AM28" s="36" t="s">
@@ -6330,7 +6333,7 @@
       <c r="AP28" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ28" s="40">
+      <c r="AQ28" s="41">
         <v>45141</v>
       </c>
       <c r="AR28" s="36" t="s">
@@ -6354,22 +6357,22 @@
       <c r="BB28" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC28" s="41">
+      <c r="BC28" s="42">
         <v>4572258729</v>
       </c>
       <c r="BD28" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE28" s="42"/>
+      <c r="BE28" s="43"/>
       <c r="BF28" s="10"/>
       <c r="BG28" s="10"/>
       <c r="BH28" s="10"/>
       <c r="BI28" s="10"/>
-      <c r="BJ28" s="44"/>
+      <c r="BJ28" s="45"/>
       <c r="BK28" s="10"/>
       <c r="BL28" s="10"/>
       <c r="BM28" s="10"/>
-      <c r="BN28" s="45"/>
+      <c r="BN28" s="46"/>
       <c r="BO28" s="10"/>
       <c r="BP28" s="10"/>
       <c r="BQ28" s="10"/>
@@ -6395,7 +6398,7 @@
         <v>43110</v>
       </c>
       <c r="H29" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I29" s="31" t="s">
         <v>231</v>
@@ -6455,10 +6458,10 @@
       <c r="AB29" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC29" s="38">
+      <c r="AC29" s="39">
         <v>43110</v>
       </c>
-      <c r="AD29" s="38">
+      <c r="AD29" s="39">
         <v>43141</v>
       </c>
       <c r="AE29" s="36" t="s">
@@ -6467,22 +6470,22 @@
       <c r="AF29" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG29" s="39">
+      <c r="AG29" s="40">
         <v>1950</v>
       </c>
-      <c r="AH29" s="39">
+      <c r="AH29" s="40">
         <v>1750</v>
       </c>
-      <c r="AI29" s="39">
+      <c r="AI29" s="40">
         <v>0</v>
       </c>
-      <c r="AJ29" s="39">
+      <c r="AJ29" s="40">
         <v>0</v>
       </c>
-      <c r="AK29" s="39">
+      <c r="AK29" s="40">
         <v>0</v>
       </c>
-      <c r="AL29" s="39">
+      <c r="AL29" s="40">
         <v>0</v>
       </c>
       <c r="AM29" s="36" t="s">
@@ -6497,7 +6500,7 @@
       <c r="AP29" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ29" s="40">
+      <c r="AQ29" s="41">
         <v>45141</v>
       </c>
       <c r="AR29" s="36" t="s">
@@ -6521,22 +6524,22 @@
       <c r="BB29" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC29" s="41">
+      <c r="BC29" s="42">
         <v>12289525578811</v>
       </c>
       <c r="BD29" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE29" s="42"/>
+      <c r="BE29" s="43"/>
       <c r="BF29" s="10"/>
       <c r="BG29" s="10"/>
       <c r="BH29" s="10"/>
-      <c r="BI29" s="43"/>
-      <c r="BJ29" s="47"/>
+      <c r="BI29" s="44"/>
+      <c r="BJ29" s="48"/>
       <c r="BK29" s="10"/>
       <c r="BL29" s="10"/>
       <c r="BM29" s="10"/>
-      <c r="BN29" s="45"/>
+      <c r="BN29" s="46"/>
       <c r="BO29" s="10"/>
       <c r="BP29" s="10"/>
       <c r="BQ29" s="10"/>
@@ -6562,7 +6565,7 @@
         <v>44264</v>
       </c>
       <c r="H30" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I30" s="31" t="s">
         <v>237</v>
@@ -6622,10 +6625,10 @@
       <c r="AB30" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC30" s="38">
+      <c r="AC30" s="39">
         <v>44264</v>
       </c>
-      <c r="AD30" s="38">
+      <c r="AD30" s="39">
         <v>44295</v>
       </c>
       <c r="AE30" s="36" t="s">
@@ -6634,22 +6637,22 @@
       <c r="AF30" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG30" s="39">
+      <c r="AG30" s="40">
         <v>2350</v>
       </c>
-      <c r="AH30" s="39">
+      <c r="AH30" s="40">
         <v>2450</v>
       </c>
-      <c r="AI30" s="39">
+      <c r="AI30" s="40">
         <v>2050</v>
       </c>
-      <c r="AJ30" s="39">
+      <c r="AJ30" s="40">
         <v>2250</v>
       </c>
-      <c r="AK30" s="39">
+      <c r="AK30" s="40">
         <v>2350</v>
       </c>
-      <c r="AL30" s="39">
+      <c r="AL30" s="40">
         <v>2450</v>
       </c>
       <c r="AM30" s="36" t="s">
@@ -6664,7 +6667,7 @@
       <c r="AP30" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ30" s="40">
+      <c r="AQ30" s="41">
         <v>45141</v>
       </c>
       <c r="AR30" s="36" t="s">
@@ -6688,22 +6691,22 @@
       <c r="BB30" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC30" s="41">
+      <c r="BC30" s="42">
         <v>164561558538</v>
       </c>
       <c r="BD30" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE30" s="42"/>
+      <c r="BE30" s="43"/>
       <c r="BF30" s="10"/>
       <c r="BG30" s="10"/>
       <c r="BH30" s="10"/>
-      <c r="BI30" s="43"/>
-      <c r="BJ30" s="47"/>
+      <c r="BI30" s="44"/>
+      <c r="BJ30" s="48"/>
       <c r="BK30" s="10"/>
       <c r="BL30" s="10"/>
       <c r="BM30" s="10"/>
-      <c r="BN30" s="45"/>
+      <c r="BN30" s="46"/>
       <c r="BO30" s="10"/>
       <c r="BP30" s="10"/>
       <c r="BQ30" s="10"/>
@@ -6729,7 +6732,7 @@
         <v>44077</v>
       </c>
       <c r="H31" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I31" s="31" t="s">
         <v>241</v>
@@ -6789,10 +6792,10 @@
       <c r="AB31" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC31" s="38">
+      <c r="AC31" s="39">
         <v>44077</v>
       </c>
-      <c r="AD31" s="38">
+      <c r="AD31" s="39">
         <v>44107</v>
       </c>
       <c r="AE31" s="36" t="s">
@@ -6801,22 +6804,22 @@
       <c r="AF31" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG31" s="39">
+      <c r="AG31" s="40">
         <v>2150</v>
       </c>
-      <c r="AH31" s="39">
+      <c r="AH31" s="40">
         <v>2550</v>
       </c>
-      <c r="AI31" s="39">
+      <c r="AI31" s="40">
         <v>2250</v>
       </c>
-      <c r="AJ31" s="39">
+      <c r="AJ31" s="40">
         <v>2650</v>
       </c>
-      <c r="AK31" s="39">
+      <c r="AK31" s="40">
         <v>2650</v>
       </c>
-      <c r="AL31" s="39">
+      <c r="AL31" s="40">
         <v>1750</v>
       </c>
       <c r="AM31" s="36" t="s">
@@ -6831,7 +6834,7 @@
       <c r="AP31" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ31" s="40">
+      <c r="AQ31" s="41">
         <v>45141</v>
       </c>
       <c r="AR31" s="36" t="s">
@@ -6855,22 +6858,22 @@
       <c r="BB31" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC31" s="41">
+      <c r="BC31" s="42">
         <v>164165533775</v>
       </c>
       <c r="BD31" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE31" s="42"/>
+      <c r="BE31" s="43"/>
       <c r="BF31" s="10"/>
       <c r="BG31" s="10"/>
       <c r="BH31" s="10"/>
-      <c r="BI31" s="43"/>
-      <c r="BJ31" s="47"/>
+      <c r="BI31" s="44"/>
+      <c r="BJ31" s="48"/>
       <c r="BK31" s="10"/>
       <c r="BL31" s="10"/>
       <c r="BM31" s="10"/>
-      <c r="BN31" s="45"/>
+      <c r="BN31" s="46"/>
       <c r="BO31" s="10"/>
       <c r="BP31" s="10"/>
       <c r="BQ31" s="10"/>
@@ -6896,7 +6899,7 @@
         <v>43194</v>
       </c>
       <c r="H32" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I32" s="31" t="s">
         <v>246</v>
@@ -6956,10 +6959,10 @@
       <c r="AB32" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC32" s="38">
+      <c r="AC32" s="39">
         <v>43194</v>
       </c>
-      <c r="AD32" s="38">
+      <c r="AD32" s="39">
         <v>43224</v>
       </c>
       <c r="AE32" s="36" t="s">
@@ -6968,22 +6971,22 @@
       <c r="AF32" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG32" s="39">
+      <c r="AG32" s="40">
         <v>1450</v>
       </c>
-      <c r="AH32" s="39">
+      <c r="AH32" s="40">
         <v>1450</v>
       </c>
-      <c r="AI32" s="39">
+      <c r="AI32" s="40">
         <v>1450</v>
       </c>
-      <c r="AJ32" s="39">
+      <c r="AJ32" s="40">
         <v>1450</v>
       </c>
-      <c r="AK32" s="39">
+      <c r="AK32" s="40">
         <v>1450</v>
       </c>
-      <c r="AL32" s="39">
+      <c r="AL32" s="40">
         <v>1450</v>
       </c>
       <c r="AM32" s="36" t="s">
@@ -6998,7 +7001,7 @@
       <c r="AP32" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ32" s="40">
+      <c r="AQ32" s="41">
         <v>45141</v>
       </c>
       <c r="AR32" s="36" t="s">
@@ -7022,22 +7025,22 @@
       <c r="BB32" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC32" s="41">
+      <c r="BC32" s="42">
         <v>2245525565435</v>
       </c>
       <c r="BD32" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BE32" s="42"/>
+      <c r="BE32" s="43"/>
       <c r="BF32" s="10"/>
       <c r="BG32" s="10"/>
       <c r="BH32" s="10"/>
-      <c r="BI32" s="43"/>
-      <c r="BJ32" s="47"/>
+      <c r="BI32" s="44"/>
+      <c r="BJ32" s="48"/>
       <c r="BK32" s="10"/>
       <c r="BL32" s="10"/>
       <c r="BM32" s="10"/>
-      <c r="BN32" s="45"/>
+      <c r="BN32" s="46"/>
       <c r="BO32" s="10"/>
       <c r="BP32" s="10"/>
       <c r="BQ32" s="10"/>
@@ -7063,7 +7066,7 @@
         <v>44366</v>
       </c>
       <c r="H33" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I33" s="31" t="s">
         <v>250</v>
@@ -7123,10 +7126,10 @@
       <c r="AB33" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC33" s="38">
+      <c r="AC33" s="39">
         <v>44366</v>
       </c>
-      <c r="AD33" s="38">
+      <c r="AD33" s="39">
         <v>44396</v>
       </c>
       <c r="AE33" s="36" t="s">
@@ -7135,22 +7138,22 @@
       <c r="AF33" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG33" s="39">
+      <c r="AG33" s="40">
         <v>2550</v>
       </c>
-      <c r="AH33" s="39">
+      <c r="AH33" s="40">
         <v>2550</v>
       </c>
-      <c r="AI33" s="39">
+      <c r="AI33" s="40">
         <v>2550</v>
       </c>
-      <c r="AJ33" s="39">
+      <c r="AJ33" s="40">
         <v>2550</v>
       </c>
-      <c r="AK33" s="39">
+      <c r="AK33" s="40">
         <v>2550</v>
       </c>
-      <c r="AL33" s="39">
+      <c r="AL33" s="40">
         <v>2550</v>
       </c>
       <c r="AM33" s="36" t="s">
@@ -7165,7 +7168,7 @@
       <c r="AP33" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ33" s="40">
+      <c r="AQ33" s="41">
         <v>45141</v>
       </c>
       <c r="AR33" s="36" t="s">
@@ -7189,7 +7192,7 @@
       <c r="BB33" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC33" s="41">
+      <c r="BC33" s="42">
         <v>112231515177</v>
       </c>
       <c r="BD33" s="36" t="s">
@@ -7200,7 +7203,7 @@
       <c r="BG33" s="10"/>
       <c r="BH33" s="10"/>
       <c r="BI33" s="10"/>
-      <c r="BJ33" s="52"/>
+      <c r="BJ33" s="53"/>
       <c r="BK33" s="10"/>
       <c r="BL33" s="10"/>
       <c r="BM33" s="10"/>
@@ -7230,7 +7233,7 @@
         <v>43373</v>
       </c>
       <c r="H34" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I34" s="31" t="s">
         <v>254</v>
@@ -7290,10 +7293,10 @@
       <c r="AB34" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC34" s="38">
+      <c r="AC34" s="39">
         <v>43373</v>
       </c>
-      <c r="AD34" s="38">
+      <c r="AD34" s="39">
         <v>43403</v>
       </c>
       <c r="AE34" s="36" t="s">
@@ -7302,22 +7305,22 @@
       <c r="AF34" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG34" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH34" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI34" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ34" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK34" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL34" s="39">
+      <c r="AG34" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH34" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI34" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ34" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK34" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL34" s="40">
         <v>3950</v>
       </c>
       <c r="AM34" s="36" t="s">
@@ -7332,7 +7335,7 @@
       <c r="AP34" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ34" s="40">
+      <c r="AQ34" s="41">
         <v>45141</v>
       </c>
       <c r="AR34" s="36" t="s">
@@ -7356,7 +7359,7 @@
       <c r="BB34" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC34" s="41">
+      <c r="BC34" s="42">
         <v>7612657791</v>
       </c>
       <c r="BD34" s="36" t="s">
@@ -7367,7 +7370,7 @@
       <c r="BG34" s="10"/>
       <c r="BH34" s="10"/>
       <c r="BI34" s="10"/>
-      <c r="BJ34" s="52"/>
+      <c r="BJ34" s="53"/>
       <c r="BK34" s="10"/>
       <c r="BL34" s="10"/>
       <c r="BM34" s="10"/>
@@ -7397,7 +7400,7 @@
         <v>44021</v>
       </c>
       <c r="H35" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I35" s="31" t="s">
         <v>259</v>
@@ -7447,10 +7450,10 @@
       <c r="AB35" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC35" s="38">
+      <c r="AC35" s="39">
         <v>44021</v>
       </c>
-      <c r="AD35" s="38">
+      <c r="AD35" s="39">
         <v>44052</v>
       </c>
       <c r="AE35" s="36" t="s">
@@ -7459,22 +7462,22 @@
       <c r="AF35" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG35" s="39">
+      <c r="AG35" s="40">
         <v>2450</v>
       </c>
-      <c r="AH35" s="39">
+      <c r="AH35" s="40">
         <v>2750</v>
       </c>
-      <c r="AI35" s="39">
+      <c r="AI35" s="40">
         <v>2850</v>
       </c>
-      <c r="AJ35" s="39">
+      <c r="AJ35" s="40">
         <v>2350</v>
       </c>
-      <c r="AK35" s="39">
+      <c r="AK35" s="40">
         <v>2850</v>
       </c>
-      <c r="AL35" s="39">
+      <c r="AL35" s="40">
         <v>2950</v>
       </c>
       <c r="AM35" s="36" t="s">
@@ -7489,7 +7492,7 @@
       <c r="AP35" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ35" s="40">
+      <c r="AQ35" s="41">
         <v>45141</v>
       </c>
       <c r="AR35" s="36" t="s">
@@ -7513,7 +7516,7 @@
       <c r="BB35" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC35" s="41">
+      <c r="BC35" s="42">
         <v>114512527819</v>
       </c>
       <c r="BD35" s="36" t="s">
@@ -7524,7 +7527,7 @@
       <c r="BG35" s="10"/>
       <c r="BH35" s="10"/>
       <c r="BI35" s="10"/>
-      <c r="BJ35" s="52"/>
+      <c r="BJ35" s="53"/>
       <c r="BK35" s="10"/>
       <c r="BL35" s="10"/>
       <c r="BM35" s="10"/>
@@ -7554,7 +7557,7 @@
         <v>44430</v>
       </c>
       <c r="H36" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I36" s="31" t="s">
         <v>261</v>
@@ -7614,10 +7617,10 @@
       <c r="AB36" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC36" s="38">
+      <c r="AC36" s="39">
         <v>44430</v>
       </c>
-      <c r="AD36" s="38">
+      <c r="AD36" s="39">
         <v>44461</v>
       </c>
       <c r="AE36" s="36" t="s">
@@ -7626,22 +7629,22 @@
       <c r="AF36" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG36" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH36" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI36" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ36" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK36" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL36" s="39">
+      <c r="AG36" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH36" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI36" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ36" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK36" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL36" s="40">
         <v>0</v>
       </c>
       <c r="AM36" s="36" t="s">
@@ -7656,7 +7659,7 @@
       <c r="AP36" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ36" s="40">
+      <c r="AQ36" s="41">
         <v>45141</v>
       </c>
       <c r="AR36" s="36" t="s">
@@ -7680,7 +7683,7 @@
       <c r="BB36" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC36" s="41">
+      <c r="BC36" s="42">
         <v>153556335585</v>
       </c>
       <c r="BD36" s="36" t="s">
@@ -7691,7 +7694,7 @@
       <c r="BG36" s="10"/>
       <c r="BH36" s="10"/>
       <c r="BI36" s="10"/>
-      <c r="BJ36" s="52"/>
+      <c r="BJ36" s="53"/>
       <c r="BK36" s="10"/>
       <c r="BL36" s="10"/>
       <c r="BM36" s="10"/>
@@ -7721,7 +7724,7 @@
         <v>44402</v>
       </c>
       <c r="H37" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I37" s="31" t="s">
         <v>265</v>
@@ -7781,10 +7784,10 @@
       <c r="AB37" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC37" s="38">
+      <c r="AC37" s="39">
         <v>44402</v>
       </c>
-      <c r="AD37" s="38">
+      <c r="AD37" s="39">
         <v>44433</v>
       </c>
       <c r="AE37" s="36" t="s">
@@ -7793,22 +7796,22 @@
       <c r="AF37" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG37" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH37" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI37" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ37" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK37" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL37" s="39">
+      <c r="AG37" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH37" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI37" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ37" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK37" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL37" s="40">
         <v>3950</v>
       </c>
       <c r="AM37" s="36" t="s">
@@ -7823,7 +7826,7 @@
       <c r="AP37" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ37" s="40">
+      <c r="AQ37" s="41">
         <v>45141</v>
       </c>
       <c r="AR37" s="36" t="s">
@@ -7847,7 +7850,7 @@
       <c r="BB37" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC37" s="41">
+      <c r="BC37" s="42">
         <v>164165544155</v>
       </c>
       <c r="BD37" s="36" t="s">
@@ -7858,7 +7861,7 @@
       <c r="BG37" s="10"/>
       <c r="BH37" s="10"/>
       <c r="BI37" s="10"/>
-      <c r="BJ37" s="52"/>
+      <c r="BJ37" s="53"/>
       <c r="BK37" s="10"/>
       <c r="BL37" s="10"/>
       <c r="BM37" s="10"/>
@@ -7888,7 +7891,7 @@
         <v>44103</v>
       </c>
       <c r="H38" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>269</v>
@@ -7948,10 +7951,10 @@
       <c r="AB38" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC38" s="38">
+      <c r="AC38" s="39">
         <v>44103</v>
       </c>
-      <c r="AD38" s="38">
+      <c r="AD38" s="39">
         <v>44133</v>
       </c>
       <c r="AE38" s="36" t="s">
@@ -7960,22 +7963,22 @@
       <c r="AF38" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG38" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH38" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI38" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ38" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK38" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL38" s="39">
+      <c r="AG38" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH38" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI38" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ38" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK38" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL38" s="40">
         <v>3950</v>
       </c>
       <c r="AM38" s="36" t="s">
@@ -7990,7 +7993,7 @@
       <c r="AP38" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ38" s="40">
+      <c r="AQ38" s="41">
         <v>45141</v>
       </c>
       <c r="AR38" s="36" t="s">
@@ -8014,7 +8017,7 @@
       <c r="BB38" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC38" s="41">
+      <c r="BC38" s="42">
         <v>4735255512</v>
       </c>
       <c r="BD38" s="36" t="s">
@@ -8025,7 +8028,7 @@
       <c r="BG38" s="10"/>
       <c r="BH38" s="10"/>
       <c r="BI38" s="10"/>
-      <c r="BJ38" s="52"/>
+      <c r="BJ38" s="53"/>
       <c r="BK38" s="10"/>
       <c r="BL38" s="10"/>
       <c r="BM38" s="10"/>
@@ -8055,7 +8058,7 @@
         <v>44356</v>
       </c>
       <c r="H39" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>274</v>
@@ -8115,10 +8118,10 @@
       <c r="AB39" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC39" s="38">
+      <c r="AC39" s="39">
         <v>44356</v>
       </c>
-      <c r="AD39" s="38">
+      <c r="AD39" s="39">
         <v>44386</v>
       </c>
       <c r="AE39" s="36" t="s">
@@ -8127,22 +8130,22 @@
       <c r="AF39" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG39" s="39">
+      <c r="AG39" s="40">
         <v>3750</v>
       </c>
-      <c r="AH39" s="39">
+      <c r="AH39" s="40">
         <v>3750</v>
       </c>
-      <c r="AI39" s="39">
+      <c r="AI39" s="40">
         <v>3750</v>
       </c>
-      <c r="AJ39" s="39">
+      <c r="AJ39" s="40">
         <v>3750</v>
       </c>
-      <c r="AK39" s="39">
+      <c r="AK39" s="40">
         <v>3750</v>
       </c>
-      <c r="AL39" s="39">
+      <c r="AL39" s="40">
         <v>3750</v>
       </c>
       <c r="AM39" s="36" t="s">
@@ -8157,7 +8160,7 @@
       <c r="AP39" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ39" s="40">
+      <c r="AQ39" s="41">
         <v>45141</v>
       </c>
       <c r="AR39" s="36" t="s">
@@ -8181,7 +8184,7 @@
       <c r="BB39" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC39" s="41">
+      <c r="BC39" s="42">
         <v>112362224125</v>
       </c>
       <c r="BD39" s="36" t="s">
@@ -8192,7 +8195,7 @@
       <c r="BG39" s="10"/>
       <c r="BH39" s="10"/>
       <c r="BI39" s="10"/>
-      <c r="BJ39" s="52"/>
+      <c r="BJ39" s="53"/>
       <c r="BK39" s="10"/>
       <c r="BL39" s="10"/>
       <c r="BM39" s="10"/>
@@ -8222,7 +8225,7 @@
         <v>43267</v>
       </c>
       <c r="H40" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>278</v>
@@ -8282,10 +8285,10 @@
       <c r="AB40" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC40" s="38">
+      <c r="AC40" s="39">
         <v>43267</v>
       </c>
-      <c r="AD40" s="38">
+      <c r="AD40" s="39">
         <v>43297</v>
       </c>
       <c r="AE40" s="36" t="s">
@@ -8294,22 +8297,22 @@
       <c r="AF40" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG40" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH40" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI40" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ40" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK40" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL40" s="39">
+      <c r="AG40" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH40" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI40" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ40" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK40" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL40" s="40">
         <v>3950</v>
       </c>
       <c r="AM40" s="36" t="s">
@@ -8324,7 +8327,7 @@
       <c r="AP40" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ40" s="40">
+      <c r="AQ40" s="41">
         <v>45141</v>
       </c>
       <c r="AR40" s="36" t="s">
@@ -8348,7 +8351,7 @@
       <c r="BB40" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC40" s="41">
+      <c r="BC40" s="42">
         <v>6845551716</v>
       </c>
       <c r="BD40" s="36" t="s">
@@ -8359,7 +8362,7 @@
       <c r="BG40" s="10"/>
       <c r="BH40" s="10"/>
       <c r="BI40" s="10"/>
-      <c r="BJ40" s="52"/>
+      <c r="BJ40" s="53"/>
       <c r="BK40" s="10"/>
       <c r="BL40" s="10"/>
       <c r="BM40" s="10"/>
@@ -8389,7 +8392,7 @@
         <v>44651</v>
       </c>
       <c r="H41" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>283</v>
@@ -8449,10 +8452,10 @@
       <c r="AB41" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC41" s="38">
+      <c r="AC41" s="39">
         <v>44651</v>
       </c>
-      <c r="AD41" s="38">
+      <c r="AD41" s="39">
         <v>44681</v>
       </c>
       <c r="AE41" s="36" t="s">
@@ -8461,22 +8464,22 @@
       <c r="AF41" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG41" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH41" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI41" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ41" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK41" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL41" s="39">
+      <c r="AG41" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH41" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI41" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ41" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK41" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL41" s="40">
         <v>3950</v>
       </c>
       <c r="AM41" s="36" t="s">
@@ -8491,7 +8494,7 @@
       <c r="AP41" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ41" s="40">
+      <c r="AQ41" s="41">
         <v>45141</v>
       </c>
       <c r="AR41" s="36" t="s">
@@ -8515,7 +8518,7 @@
       <c r="BB41" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC41" s="41">
+      <c r="BC41" s="42">
         <v>162647125752</v>
       </c>
       <c r="BD41" s="36" t="s">
@@ -8526,7 +8529,7 @@
       <c r="BG41" s="10"/>
       <c r="BH41" s="10"/>
       <c r="BI41" s="10"/>
-      <c r="BJ41" s="52"/>
+      <c r="BJ41" s="53"/>
       <c r="BK41" s="10"/>
       <c r="BL41" s="10"/>
       <c r="BM41" s="10"/>
@@ -8556,7 +8559,7 @@
         <v>44401</v>
       </c>
       <c r="H42" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>287</v>
@@ -8616,10 +8619,10 @@
       <c r="AB42" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC42" s="38">
+      <c r="AC42" s="39">
         <v>44401</v>
       </c>
-      <c r="AD42" s="38">
+      <c r="AD42" s="39">
         <v>44432</v>
       </c>
       <c r="AE42" s="36" t="s">
@@ -8628,22 +8631,22 @@
       <c r="AF42" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG42" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH42" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI42" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ42" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK42" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL42" s="39">
+      <c r="AG42" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH42" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI42" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ42" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK42" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL42" s="40">
         <v>3950</v>
       </c>
       <c r="AM42" s="36" t="s">
@@ -8658,7 +8661,7 @@
       <c r="AP42" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ42" s="40">
+      <c r="AQ42" s="41">
         <v>45141</v>
       </c>
       <c r="AR42" s="36" t="s">
@@ -8682,7 +8685,7 @@
       <c r="BB42" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC42" s="41">
+      <c r="BC42" s="42">
         <v>164294339677</v>
       </c>
       <c r="BD42" s="36" t="s">
@@ -8693,7 +8696,7 @@
       <c r="BG42" s="10"/>
       <c r="BH42" s="10"/>
       <c r="BI42" s="10"/>
-      <c r="BJ42" s="52"/>
+      <c r="BJ42" s="53"/>
       <c r="BK42" s="10"/>
       <c r="BL42" s="10"/>
       <c r="BM42" s="10"/>
@@ -8723,7 +8726,7 @@
         <v>44722</v>
       </c>
       <c r="H43" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>291</v>
@@ -8783,10 +8786,10 @@
       <c r="AB43" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC43" s="38">
+      <c r="AC43" s="39">
         <v>44722</v>
       </c>
-      <c r="AD43" s="38">
+      <c r="AD43" s="39">
         <v>44752</v>
       </c>
       <c r="AE43" s="36" t="s">
@@ -8795,22 +8798,22 @@
       <c r="AF43" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG43" s="39">
+      <c r="AG43" s="40">
         <v>2950</v>
       </c>
-      <c r="AH43" s="39">
+      <c r="AH43" s="40">
         <v>3150</v>
       </c>
-      <c r="AI43" s="39">
+      <c r="AI43" s="40">
         <v>3050</v>
       </c>
-      <c r="AJ43" s="39">
+      <c r="AJ43" s="40">
         <v>3050</v>
       </c>
-      <c r="AK43" s="39">
+      <c r="AK43" s="40">
         <v>2950</v>
       </c>
-      <c r="AL43" s="39">
+      <c r="AL43" s="40">
         <v>2450</v>
       </c>
       <c r="AM43" s="36" t="s">
@@ -8825,7 +8828,7 @@
       <c r="AP43" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ43" s="40">
+      <c r="AQ43" s="41">
         <v>45141</v>
       </c>
       <c r="AR43" s="36" t="s">
@@ -8849,7 +8852,7 @@
       <c r="BB43" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC43" s="41">
+      <c r="BC43" s="42">
         <v>11211655518412</v>
       </c>
       <c r="BD43" s="36" t="s">
@@ -8860,7 +8863,7 @@
       <c r="BG43" s="10"/>
       <c r="BH43" s="10"/>
       <c r="BI43" s="10"/>
-      <c r="BJ43" s="52"/>
+      <c r="BJ43" s="53"/>
       <c r="BK43" s="10"/>
       <c r="BL43" s="10"/>
       <c r="BM43" s="10"/>
@@ -8890,7 +8893,7 @@
         <v>44093</v>
       </c>
       <c r="H44" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I44" s="31" t="s">
         <v>295</v>
@@ -8950,10 +8953,10 @@
       <c r="AB44" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC44" s="38">
+      <c r="AC44" s="39">
         <v>44093</v>
       </c>
-      <c r="AD44" s="38">
+      <c r="AD44" s="39">
         <v>44123</v>
       </c>
       <c r="AE44" s="36" t="s">
@@ -8962,22 +8965,22 @@
       <c r="AF44" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG44" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH44" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI44" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ44" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK44" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL44" s="39">
+      <c r="AG44" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH44" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI44" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ44" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK44" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL44" s="40">
         <v>3950</v>
       </c>
       <c r="AM44" s="36" t="s">
@@ -8992,7 +8995,7 @@
       <c r="AP44" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ44" s="40">
+      <c r="AQ44" s="41">
         <v>45141</v>
       </c>
       <c r="AR44" s="36" t="s">
@@ -9016,7 +9019,7 @@
       <c r="BB44" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC44" s="41">
+      <c r="BC44" s="42">
         <v>7652631854</v>
       </c>
       <c r="BD44" s="36" t="s">
@@ -9027,7 +9030,7 @@
       <c r="BG44" s="10"/>
       <c r="BH44" s="10"/>
       <c r="BI44" s="10"/>
-      <c r="BJ44" s="52"/>
+      <c r="BJ44" s="53"/>
       <c r="BK44" s="10"/>
       <c r="BL44" s="10"/>
       <c r="BM44" s="10"/>
@@ -9057,7 +9060,7 @@
         <v>44842</v>
       </c>
       <c r="H45" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I45" s="31" t="s">
         <v>299</v>
@@ -9117,10 +9120,10 @@
       <c r="AB45" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC45" s="38">
+      <c r="AC45" s="39">
         <v>44842</v>
       </c>
-      <c r="AD45" s="38">
+      <c r="AD45" s="39">
         <v>44873</v>
       </c>
       <c r="AE45" s="36" t="s">
@@ -9129,22 +9132,22 @@
       <c r="AF45" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG45" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH45" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI45" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ45" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK45" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL45" s="39">
+      <c r="AG45" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH45" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI45" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ45" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK45" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL45" s="40">
         <v>3950</v>
       </c>
       <c r="AM45" s="36" t="s">
@@ -9159,7 +9162,7 @@
       <c r="AP45" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ45" s="40">
+      <c r="AQ45" s="41">
         <v>45141</v>
       </c>
       <c r="AR45" s="36" t="s">
@@ -9183,7 +9186,7 @@
       <c r="BB45" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC45" s="41">
+      <c r="BC45" s="42">
         <v>7554216844</v>
       </c>
       <c r="BD45" s="36" t="s">
@@ -9194,7 +9197,7 @@
       <c r="BG45" s="10"/>
       <c r="BH45" s="10"/>
       <c r="BI45" s="10"/>
-      <c r="BJ45" s="52"/>
+      <c r="BJ45" s="53"/>
       <c r="BK45" s="10"/>
       <c r="BL45" s="10"/>
       <c r="BM45" s="10"/>
@@ -9224,7 +9227,7 @@
         <v>44119</v>
       </c>
       <c r="H46" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I46" s="31" t="s">
         <v>303</v>
@@ -9284,10 +9287,10 @@
       <c r="AB46" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC46" s="38">
+      <c r="AC46" s="39">
         <v>44119</v>
       </c>
-      <c r="AD46" s="38">
+      <c r="AD46" s="39">
         <v>44150</v>
       </c>
       <c r="AE46" s="36" t="s">
@@ -9296,22 +9299,22 @@
       <c r="AF46" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG46" s="39">
+      <c r="AG46" s="40">
         <v>2450</v>
       </c>
-      <c r="AH46" s="39">
+      <c r="AH46" s="40">
         <v>2750</v>
       </c>
-      <c r="AI46" s="39">
+      <c r="AI46" s="40">
         <v>2850</v>
       </c>
-      <c r="AJ46" s="39">
+      <c r="AJ46" s="40">
         <v>2350</v>
       </c>
-      <c r="AK46" s="39">
+      <c r="AK46" s="40">
         <v>2850</v>
       </c>
-      <c r="AL46" s="39">
+      <c r="AL46" s="40">
         <v>2950</v>
       </c>
       <c r="AM46" s="36" t="s">
@@ -9326,7 +9329,7 @@
       <c r="AP46" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ46" s="40">
+      <c r="AQ46" s="41">
         <v>45141</v>
       </c>
       <c r="AR46" s="36" t="s">
@@ -9350,7 +9353,7 @@
       <c r="BB46" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC46" s="41">
+      <c r="BC46" s="42">
         <v>112222239363</v>
       </c>
       <c r="BD46" s="36" t="s">
@@ -9361,7 +9364,7 @@
       <c r="BG46" s="10"/>
       <c r="BH46" s="10"/>
       <c r="BI46" s="10"/>
-      <c r="BJ46" s="52"/>
+      <c r="BJ46" s="53"/>
       <c r="BK46" s="10"/>
       <c r="BL46" s="10"/>
       <c r="BM46" s="10"/>
@@ -9391,7 +9394,7 @@
         <v>44231</v>
       </c>
       <c r="H47" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I47" s="31" t="s">
         <v>307</v>
@@ -9451,10 +9454,10 @@
       <c r="AB47" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC47" s="38">
+      <c r="AC47" s="39">
         <v>44231</v>
       </c>
-      <c r="AD47" s="38">
+      <c r="AD47" s="39">
         <v>44259</v>
       </c>
       <c r="AE47" s="36" t="s">
@@ -9463,22 +9466,22 @@
       <c r="AF47" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG47" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH47" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AI47" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AJ47" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AK47" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AL47" s="39">
+      <c r="AG47" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH47" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AI47" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AJ47" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AK47" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AL47" s="40">
         <v>3950</v>
       </c>
       <c r="AM47" s="36" t="s">
@@ -9493,7 +9496,7 @@
       <c r="AP47" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ47" s="40">
+      <c r="AQ47" s="41">
         <v>45141</v>
       </c>
       <c r="AR47" s="36" t="s">
@@ -9517,7 +9520,7 @@
       <c r="BB47" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC47" s="41">
+      <c r="BC47" s="42">
         <v>7557773874</v>
       </c>
       <c r="BD47" s="36" t="s">
@@ -9528,7 +9531,7 @@
       <c r="BG47" s="10"/>
       <c r="BH47" s="10"/>
       <c r="BI47" s="10"/>
-      <c r="BJ47" s="52"/>
+      <c r="BJ47" s="53"/>
       <c r="BK47" s="10"/>
       <c r="BL47" s="10"/>
       <c r="BM47" s="10"/>
@@ -9558,7 +9561,7 @@
         <v>44231</v>
       </c>
       <c r="H48" s="34">
-        <v>3.7074652777777777</v>
+        <v>6.706597222222222</v>
       </c>
       <c r="I48" s="31" t="s">
         <v>311</v>
@@ -9618,10 +9621,10 @@
       <c r="AB48" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AC48" s="38">
+      <c r="AC48" s="39">
         <v>44231</v>
       </c>
-      <c r="AD48" s="38">
+      <c r="AD48" s="39">
         <v>44259</v>
       </c>
       <c r="AE48" s="36" t="s">
@@ -9630,22 +9633,22 @@
       <c r="AF48" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AG48" s="39">
-        <v>3950</v>
-      </c>
-      <c r="AH48" s="39">
+      <c r="AG48" s="40">
+        <v>3950</v>
+      </c>
+      <c r="AH48" s="40">
         <v>3350</v>
       </c>
-      <c r="AI48" s="39">
+      <c r="AI48" s="40">
         <v>3650</v>
       </c>
-      <c r="AJ48" s="39">
+      <c r="AJ48" s="40">
         <v>3050</v>
       </c>
-      <c r="AK48" s="39">
+      <c r="AK48" s="40">
         <v>3350</v>
       </c>
-      <c r="AL48" s="39">
+      <c r="AL48" s="40">
         <v>3550</v>
       </c>
       <c r="AM48" s="36" t="s">
@@ -9660,7 +9663,7 @@
       <c r="AP48" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AQ48" s="40">
+      <c r="AQ48" s="41">
         <v>45141</v>
       </c>
       <c r="AR48" s="36" t="s">
@@ -9684,7 +9687,7 @@
       <c r="BB48" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BC48" s="41">
+      <c r="BC48" s="42">
         <v>162218715795</v>
       </c>
       <c r="BD48" s="36" t="s">
@@ -9695,7 +9698,7 @@
       <c r="BG48" s="10"/>
       <c r="BH48" s="10"/>
       <c r="BI48" s="10"/>
-      <c r="BJ48" s="52"/>
+      <c r="BJ48" s="53"/>
       <c r="BK48" s="10"/>
       <c r="BL48" s="10"/>
       <c r="BM48" s="10"/>
